--- a/T7B - PONTES.xlsx
+++ b/T7B - PONTES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Ambiente de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F68A636-299D-4322-AA39-9CC4E4D5CB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECAA440-097B-40C8-8209-8440850F3CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5612D8A9-4F74-4819-A33D-9867F612D722}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <r>
       <t>R3 (codigo de cores) (</t>
@@ -174,9 +174,6 @@
     <t>ΔV (V)</t>
   </si>
   <si>
-    <t>t planeado</t>
-  </si>
-  <si>
     <t>u(ΔV) (V)</t>
   </si>
   <si>
@@ -250,6 +247,24 @@
   </si>
   <si>
     <t>±</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>0,013 mV</t>
+  </si>
+  <si>
+    <t>0 mV</t>
+  </si>
+  <si>
+    <t>0,009 mV</t>
+  </si>
+  <si>
+    <t>0,001 mV</t>
+  </si>
+  <si>
+    <t>0,058 mV</t>
   </si>
 </sst>
 </file>
@@ -366,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,6 +415,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +519,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.179989561452118"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.75107972387248645"/>
+          <c:h val="0.58880431612715078"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -549,7 +577,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parte 2'!$H$2:$H$52</c:f>
+              <c:f>'Parte 2'!$G$2:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -557,161 +585,161 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parte 2'!$D$2:$D$52</c:f>
+              <c:f>'Parte 2'!$C$2:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -719,154 +747,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.3499999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.75E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.6000000000000006E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.4000000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.27E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.1000000000000006E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8.9300000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9.7400000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.062E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.132E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.2350000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.3000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.379E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.4599999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.537E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.6100000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.6919999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.67E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1.843E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.9250000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>2.0720000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>2.1760000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>2.3040000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>2.4320000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2.5249999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>2.63E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2.7919999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2.8900000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>2.9980000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>3.1000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>3.1930000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>3.2799999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>3.3870000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3.4820000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>3.5539999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>3.64E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>3.725E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>3.7930000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>3.8479999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>3.9119999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>3.9789999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>4.0419999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>4.0999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>4.1600000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>4.2140000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>4.2659999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>4.313E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>4.3779999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>4.4260000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,7 +936,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parte 2'!$H$2:$H$52</c:f>
+              <c:f>'Parte 2'!$G$2:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -916,161 +944,161 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parte 2'!$J$2:$J$52</c:f>
+              <c:f>'Parte 2'!$I$2:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1078,154 +1106,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.060758797653959E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.1205459375286251E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.1793627540743454E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.237210579298984E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.2940907427735087E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.35000457163756E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.35000457163756E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.4049533906050079E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>8.4589385219694898E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9.511961285609933E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9.511961285609933E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.0564022998996074E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.1615124977193943E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.2665268532871341E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.3714454976303317E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.3714454976303317E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.4762685615377607E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.5809961755600074E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1.5809961755600074E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.6856284700100118E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.79016557496361E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1.8946076202600707E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1.9989547355026361E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>2.103207050059053E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>2.2073646930621141E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2.3114277934101844E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>2.4153964797677375E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2.5192708805658838E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2.6230511240029008E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>2.7267373380447583E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>2.8303296504256477E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>2.9338281886485016E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>3.0372330799855233E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>3.1405444514787011E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3.2437624299403367E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>3.3468871419535555E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>3.4499187138728321E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>3.4499187138728321E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>3.5528572718245013E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>3.6557029417072732E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>3.6557029417072732E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>3.6557029417072732E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>3.7584558491927478E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>3.8611161197259283E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>3.9636838785257278E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>3.9636838785257278E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>3.9636838785257278E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>4.0661592505854801E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>4.0661592505854801E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>4.1685423606734485E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,7 +1295,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parte 2'!$H$2:$H$52</c:f>
+              <c:f>'Parte 2'!$G$2:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1275,161 +1303,161 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parte 2'!$K$2:$K$52</c:f>
+              <c:f>'Parte 2'!$J$2:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1437,154 +1465,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.0612450719721279E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.1224901439442559E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.1837352159163837E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.2449802878885117E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.3062253598606393E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.3674704318327673E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.3674704318327673E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.4287155038048954E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>8.4899605757770235E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9.5512056477491515E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9.5512056477491515E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.0612450719721279E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.1673695791693407E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.2734940863665535E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.3796185935637663E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.3796185935637663E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.4857431007609791E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.5918676079581919E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1.5918676079581919E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.6979921151554047E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.8041166223526177E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1.9102411295498303E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>2.0163656367470431E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>2.1224901439442557E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>2.2286146511414687E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2.3347391583386813E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>2.4408636655358943E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2.5469881727331069E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2.65311267993032E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>2.7592371871275325E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>2.8653616943247456E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>2.9714862015219582E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>3.0776107087191712E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>3.1837352159163838E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3.2898597231135968E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>3.3959842303108094E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>3.5021087375080224E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>3.5021087375080224E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>3.6082332447052354E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>3.7143577519024485E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>3.7143577519024485E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>3.7143577519024485E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>3.8204822590996606E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>3.9266067662968732E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>4.0327312734940862E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>4.0327312734940862E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>4.0327312734940862E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>4.1388557806912992E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>4.1388557806912992E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>4.2449802878885114E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,6 +1901,51 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68709765411893076"/>
+          <c:y val="0.43756816856226305"/>
+          <c:w val="0.27198581560283686"/>
+          <c:h val="0.31250218722659673"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2046,7 +2119,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parte 2'!$H$2:$H$52</c:f>
+              <c:f>'Parte 2'!$G$2:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2054,316 +2127,316 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parte 2'!$M$2:$M$52</c:f>
+              <c:f>'Parte 2'!$L$2:$L$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1.9621666224476156E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-6.738035348020761E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.645595528434635E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.529226404890042E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.9128572813454313E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-3.5118421991839691E-8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-2.3198809657437765E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.9801190342562193E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.4637499107116219E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.647380787167009E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-1.9689883363776042E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>8.3310116636224184E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4.2146425400778039E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.4982734165332016E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-1.0180957070114174E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-3.9344648305560245E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3.3655351694439903E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>9.4916604589938454E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-1.1867203077645214E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.4327969223547838E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3.0164277988101781E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-9.9941324734412196E-7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>-3.5163104482790423E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-3.7326795718235946E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>-1.549048695368262E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>6.3458218108715728E-6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>-6.8178694245745429E-6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>-7.9815606600208006E-6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>4.7854748104533135E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>3.9691056869087683E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4.1527365633641389E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>3.7363674398195601E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>2.4199983162749485E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>5.036291927303007E-6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>5.8726006918574485E-6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>-5.2910905435888354E-6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>-3.9454781779035136E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>-5.961847301448088E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>2.5381526985519126E-5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>-1.2782164249926838E-5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>-6.3945855485373661E-5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>5.4144514626160156E-8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>6.7054144514626379E-5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>2.3890453279180185E-5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>-2.4273237956265806E-5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>-7.0436929191710664E-5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>-1.6436929191710435E-5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>3.556307080828866E-5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>-2.3600620427157055E-5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>4.1399379572842898E-5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>-1.6764311662603552E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3808,13 +3881,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
@@ -3844,13 +3917,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4178,10 +4251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD29F94-593C-4FB7-9771-3260EC836248}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4226,36 +4299,46 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1193</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1199.2</v>
+      </c>
       <c r="E2" s="1">
         <f>D2*0.1</f>
-        <v>0</v>
+        <v>119.92000000000002</v>
       </c>
       <c r="F2" s="1">
         <f>D2</f>
-        <v>0</v>
+        <v>1199.2</v>
       </c>
       <c r="G2" s="1">
         <f>E2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="e">
+        <v>119.92000000000002</v>
+      </c>
+      <c r="H2" s="2">
         <f>G2/F2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" s="2" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="2">
         <f>ABS(F2-C2)/C2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" s="2"/>
+        <v>5.1969823973177249E-3</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1">
+        <v>1000</v>
+      </c>
       <c r="N2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>16</v>
@@ -4266,34 +4349,44 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2120</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2164.3000000000002</v>
+      </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E6" si="0">D3*0.1</f>
-        <v>0</v>
+        <v>216.43000000000004</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F6" si="1">D3</f>
-        <v>0</v>
+        <v>2164.3000000000002</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G6" si="2">E3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="e">
+        <v>216.43000000000004</v>
+      </c>
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H6" si="3">G3/F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="2" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I6" si="4">ABS(F3-C3)/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>2.0896226415094424E-2</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1">
+        <v>1000</v>
+      </c>
       <c r="N3" s="8"/>
       <c r="O3" s="3" t="s">
         <v>17</v>
@@ -4304,92 +4397,117 @@
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1">
+        <v>3300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3240</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3289.2</v>
+      </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>328.92</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3289.2</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="e">
+        <v>328.92</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="2" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>1.518518518518513E-2</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6580</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6653.4</v>
+      </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>665.34</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6653.4</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="e">
+        <v>665.34</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="2" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>1.1155015197568334E-2</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C6" s="1">
+        <v>622</v>
+      </c>
+      <c r="D6" s="1">
+        <v>624.79999999999995</v>
+      </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62.48</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>624.79999999999995</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="e">
+        <v>62.48</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="2" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>4.5016077170417276E-3</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4402,2058 +4520,2212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2744CCB0-2F7D-4947-8B22-CBAF80B9ABCC}">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <f>C2*0.001</f>
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="1">
+        <f>B2*0.001</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <f>E2*1000</f>
+        <v>1092</v>
+      </c>
       <c r="G2" s="1">
-        <f>F2*1000</f>
+        <f>F2-$F$2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="1">
-        <f>G2-$G$2</f>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <f>(G2*$P$2)/(4*$P$3+2*G2)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="e">
-        <f>(H2*$Q$2)/(4*$Q$3+2*H2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" s="1" t="e">
-        <f>(H2*$Q$2)/(4*$Q$3)</f>
-        <v>#DIV/0!</v>
+      <c r="J2" s="1">
+        <f>(G2*$P$2)/(4*$P$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <f>G2*$O$24+$P$24</f>
+        <v>1.9621666224476156E-4</v>
       </c>
       <c r="L2" s="1">
-        <f>H2*$P$24+$Q$24</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <f>D2-L2</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="1"/>
+        <f>C2-K2</f>
+        <v>-1.9621666224476156E-4</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.46300000000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>30</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D52" si="0">C3*0.001</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C52" si="0">B3*0.001</f>
+        <v>2.3499999999999999E-4</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1.093</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F52" si="1">E3*1000</f>
+        <v>1093</v>
+      </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G52" si="1">F3*1000</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H52" si="2">G3-$G$2</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="e">
-        <f t="shared" ref="J3:J52" si="3">(H3*$Q$2)/(4*$Q$3+2*H3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="1" t="e">
-        <f t="shared" ref="K3:K52" si="4">(H3*$Q$2)/(4*$Q$3)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="G3:G52" si="2">F3-$F$2</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I52" si="3">(G3*$P$2)/(4*$P$3+2*G3)</f>
+        <v>1.060758797653959E-4</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J52" si="4">(G3*$P$2)/(4*$P$3)</f>
+        <v>1.0612450719721279E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K52" si="5">G3*$O$24+$P$24</f>
+        <v>3.023803534802076E-4</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L52" si="5">H3*$P$24+$Q$24</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M52" si="6">D3-L3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="1"/>
+        <f t="shared" ref="L3:L52" si="6">C3-K3</f>
+        <v>-6.738035348020761E-5</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1090.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>60</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
+      <c r="B4" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>4.75E-4</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>1094</v>
+      </c>
       <c r="G4" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="1" t="e">
+        <v>2.1205459375286251E-4</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.1224901439442559E-4</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0854404471565365E-4</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.645595528434635E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>90</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="B5" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>5.6000000000000006E-4</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>1.095</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>1095</v>
+      </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="e">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="1" t="e">
+        <v>3.1793627540743454E-4</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.1837352159163837E-4</v>
+      </c>
+      <c r="K5" s="1">
+        <f>G5*$O$24+$P$24</f>
+        <v>5.1470773595109964E-4</v>
       </c>
       <c r="L5" s="1">
-        <f>H5*$P$24+$Q$24</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.529226404890042E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>120</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
+      <c r="B6" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>1096</v>
+      </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="e">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="1" t="e">
+        <v>4.237210579298984E-4</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.2449802878885117E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="5"/>
+        <v>6.2087142718654574E-4</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.9128572813454313E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>150</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
+      <c r="B7" s="1">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>7.27E-4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1.097</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>1097</v>
+      </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="e">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="1" t="e">
+        <v>5.2940907427735087E-4</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5.3062253598606393E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="5"/>
+        <v>7.2703511842199184E-4</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3.5118421991839691E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>180</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
+      <c r="B8" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>8.1000000000000006E-4</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>1098</v>
+      </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="e">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="1" t="e">
+        <v>6.35000457163756E-4</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.3674704318327673E-4</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="5"/>
+        <v>8.3319880965743783E-4</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2.3198809657437765E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>210</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
+      <c r="B9" s="1">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>8.9300000000000002E-4</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>1098</v>
+      </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="e">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="1" t="e">
+        <v>6.35000457163756E-4</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.3674704318327673E-4</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="5"/>
+        <v>8.3319880965743783E-4</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.9801190342562193E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>240</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
+      <c r="B10" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>9.7400000000000004E-4</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>1.099</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>1099</v>
+      </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="e">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="1" t="e">
+        <v>7.4049533906050079E-4</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>7.4287155038048954E-4</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="5"/>
+        <v>9.3936250089288382E-4</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.4637499107116219E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>270</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
+      <c r="B11" s="1">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>1.062E-3</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="e">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="1" t="e">
+        <v>8.4589385219694898E-4</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.4899605757770235E-4</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0455261921283299E-3</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.647380787167009E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>300</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
+      <c r="B12" s="1">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>1.132E-3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>1.101</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>1101</v>
+      </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="e">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="1" t="e">
+        <v>9.511961285609933E-4</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.5512056477491515E-4</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="5"/>
+        <v>1.151689883363776E-3</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.9689883363776042E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>330</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1">
+      <c r="B13" s="1">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+        <v>1.2350000000000002E-3</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>1.101</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>1101</v>
+      </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="e">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="1" t="e">
+        <v>9.511961285609933E-4</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.5512056477491515E-4</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="5"/>
+        <v>1.151689883363776E-3</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.3310116636224184E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>360</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
+      <c r="B14" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>1.3000000000000002E-3</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>1102</v>
+      </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="e">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="1" t="e">
+        <v>1.0564022998996074E-3</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.0612450719721279E-3</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2578535745992221E-3</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.2146425400778039E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>390</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
+      <c r="B15" s="1">
+        <v>1.379</v>
+      </c>
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+        <v>1.379E-3</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>1.103</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>1103</v>
+      </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="e">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" s="1" t="e">
+        <v>1.1615124977193943E-3</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.1673695791693407E-3</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="5"/>
+        <v>1.364017265834668E-3</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.4982734165332016E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>420</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
+      <c r="B16" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>1104</v>
+      </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="e">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="1" t="e">
+        <v>1.2665268532871341E-3</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.2734940863665535E-3</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4701809570701141E-3</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.0180957070114174E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>450</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
+      <c r="B17" s="1">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+        <v>1.537E-3</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>1.105</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>1105</v>
+      </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="e">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="1" t="e">
+        <v>1.3714454976303317E-3</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.3796185935637663E-3</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5763446483055602E-3</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3.9344648305560245E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>480</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
+      <c r="B18" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+        <v>1.6100000000000001E-3</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>1.105</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>1105</v>
+      </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="e">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="1" t="e">
+        <v>1.3714454976303317E-3</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.3796185935637663E-3</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5763446483055602E-3</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.3655351694439903E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>510</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
+      <c r="B19" s="1">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>1.6919999999999999E-3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>1106</v>
+      </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="e">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="1" t="e">
+        <v>1.4762685615377607E-3</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.4857431007609791E-3</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6825083395410061E-3</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.4916604589938454E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>540</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1">
+      <c r="B20" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+        <v>1.67E-3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>1.107</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>1107</v>
+      </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="e">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="1" t="e">
+        <v>1.5809961755600074E-3</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.5918676079581919E-3</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7886720307764522E-3</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.1867203077645214E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>570</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1">
+      <c r="B21" s="1">
+        <v>1.843</v>
+      </c>
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+        <v>1.843E-3</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>1.107</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>1107</v>
+      </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="e">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="1" t="e">
+        <v>1.5809961755600074E-3</v>
+      </c>
+      <c r="J21" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.5918676079581919E-3</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7886720307764522E-3</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.4327969223547838E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>600</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1">
+      <c r="B22" s="1">
+        <v>1.925</v>
+      </c>
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>1.9250000000000001E-3</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>1108</v>
+      </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1" t="e">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="1" t="e">
+        <v>1.6856284700100118E-3</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.6979921151554047E-3</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8948357220118983E-3</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.0164277988101781E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>630</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1">
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>2E-3</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>1.109</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>1109</v>
+      </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1" t="e">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="1" t="e">
+        <v>1.79016557496361E-3</v>
+      </c>
+      <c r="J23" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.8041166223526177E-3</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0009994132473442E-3</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>-9.9941324734412196E-7</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>660</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1">
+      <c r="B24" s="1">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+        <v>2.0720000000000001E-3</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1" t="e">
+        <v>18</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="1" t="e">
+        <v>1.8946076202600707E-3</v>
+      </c>
+      <c r="J24" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.9102411295498303E-3</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1071631044827905E-3</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>33</v>
+        <v>-3.5163104482790423E-5</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="array" ref="O24:P26">LINEST(C2:C52,G2:G52,1,1)</f>
+        <v>1.0616369123544605E-4</v>
       </c>
       <c r="P24" s="5">
-        <f t="array" ref="P24:Q26">LINEST(D2:D52,H2:H52,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>0</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="S24" s="11"/>
+        <v>1.9621666224476156E-4</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>690</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1">
+      <c r="B25" s="1">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+        <v>2.1760000000000004E-3</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>1.111</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1" t="e">
+        <v>19</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="1" t="e">
+        <v>1.9989547355026361E-3</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.0163656367470431E-3</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2133267957182364E-3</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>34</v>
+        <v>-3.7326795718235946E-5</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="5">
+        <v>5.6682004914176071E-7</v>
       </c>
       <c r="P25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S25" s="9"/>
+        <v>1.3883972095916352E-5</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="9"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>720</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1">
+      <c r="B26" s="1">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>2.3040000000000001E-3</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>1112</v>
+      </c>
       <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1" t="e">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="1" t="e">
+        <v>2.103207050059053E-3</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.1224901439442557E-3</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3194904869536827E-3</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>35</v>
+        <v>-1.549048695368262E-5</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.99860514755907359</v>
       </c>
       <c r="P26" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>0</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="S26" s="9"/>
+        <v>4.9693147055673696E-5</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>750</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1">
+      <c r="B27" s="1">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+        <v>2.4320000000000001E-3</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>1.113</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>1113</v>
+      </c>
       <c r="G27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1" t="e">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="1" t="e">
+        <v>2.2073646930621141E-3</v>
+      </c>
+      <c r="J27" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.2286146511414687E-3</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4256541781891286E-3</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.3458218108715728E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>780</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1">
+      <c r="B28" s="1">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+        <v>2.5249999999999999E-3</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>1114</v>
+      </c>
       <c r="G28" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1" t="e">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="1" t="e">
+        <v>2.3114277934101844E-3</v>
+      </c>
+      <c r="J28" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.3347391583386813E-3</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5318178694245744E-3</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-6.8178694245745429E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>810</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
+      <c r="B29" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+        <v>2.63E-3</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>1.115</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>1115</v>
+      </c>
       <c r="G29" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1" t="e">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="1" t="e">
+        <v>2.4153964797677375E-3</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.4408636655358943E-3</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6379815606600208E-3</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-7.9815606600208006E-6</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>840</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1">
+      <c r="B30" s="1">
+        <v>2.7919999999999998</v>
+      </c>
+      <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <v>2.7919999999999998E-3</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>1116</v>
+      </c>
       <c r="G30" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1" t="e">
+        <v>24</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="1" t="e">
+        <v>2.5192708805658838E-3</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.5469881727331069E-3</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7441452518954666E-3</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.7854748104533135E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>870</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1">
+      <c r="B31" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>1.117</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>1117</v>
+      </c>
       <c r="G31" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1" t="e">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="1" t="e">
+        <v>2.6230511240029008E-3</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.65311267993032E-3</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8503089431309125E-3</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.9691056869087683E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>900</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
+      <c r="B32" s="1">
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+        <v>2.9980000000000002E-3</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>1118</v>
+      </c>
       <c r="G32" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1" t="e">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="1" t="e">
+        <v>2.7267373380447583E-3</v>
+      </c>
+      <c r="J32" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.7592371871275325E-3</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9564726343663588E-3</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.1527365633641389E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>930</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1">
+      <c r="B33" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+        <v>3.1000000000000003E-3</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>1.119</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>1119</v>
+      </c>
       <c r="G33" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1" t="e">
+        <v>27</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="1" t="e">
+        <v>2.8303296504256477E-3</v>
+      </c>
+      <c r="J33" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.8653616943247456E-3</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0626363256018047E-3</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.7363674398195601E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>960</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1">
+      <c r="B34" s="1">
+        <v>3.1930000000000001</v>
+      </c>
+      <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+        <v>3.1930000000000001E-3</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
       <c r="G34" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1" t="e">
+        <v>28</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="1" t="e">
+        <v>2.9338281886485016E-3</v>
+      </c>
+      <c r="J34" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.9714862015219582E-3</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1688000168372506E-3</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.4199983162749485E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>990</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1">
+      <c r="B35" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="C35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>1.121</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>1121</v>
+      </c>
       <c r="G35" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1" t="e">
+        <v>29</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="1" t="e">
+        <v>3.0372330799855233E-3</v>
+      </c>
+      <c r="J35" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.0776107087191712E-3</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2749637080726969E-3</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.036291927303007E-6</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1020</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1">
+      <c r="B36" s="1">
+        <v>3.387</v>
+      </c>
+      <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+        <v>3.3870000000000003E-3</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>1122</v>
+      </c>
       <c r="G36" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1" t="e">
+        <v>30</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="1" t="e">
+        <v>3.1405444514787011E-3</v>
+      </c>
+      <c r="J36" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.1837352159163838E-3</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3811273993081428E-3</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.8726006918574485E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1050</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1">
+      <c r="B37" s="1">
+        <v>3.4820000000000002</v>
+      </c>
+      <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+        <v>3.4820000000000003E-3</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>1.123</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>1123</v>
+      </c>
       <c r="G37" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1" t="e">
+        <v>31</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="1" t="e">
+        <v>3.2437624299403367E-3</v>
+      </c>
+      <c r="J37" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.2898597231135968E-3</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4872910905435891E-3</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-5.2910905435888354E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1080</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1">
+      <c r="B38" s="1">
+        <v>3.5539999999999998</v>
+      </c>
+      <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+        <v>3.5539999999999999E-3</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>1124</v>
+      </c>
       <c r="G38" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1" t="e">
+        <v>32</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="1" t="e">
+        <v>3.3468871419535555E-3</v>
+      </c>
+      <c r="J38" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.3959842303108094E-3</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="5"/>
+        <v>3.593454781779035E-3</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3.9454781779035136E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>1110</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1">
+      <c r="B39" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="C39" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+        <v>3.64E-3</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>1125</v>
+      </c>
       <c r="G39" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1" t="e">
+        <v>33</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="1" t="e">
+        <v>3.4499187138728321E-3</v>
+      </c>
+      <c r="J39" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.5021087375080224E-3</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6996184730144809E-3</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-5.961847301448088E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1140</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1">
+      <c r="B40" s="1">
+        <v>3.7250000000000001</v>
+      </c>
+      <c r="C40" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+        <v>3.725E-3</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>1125</v>
+      </c>
       <c r="G40" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1" t="e">
+        <v>33</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="1" t="e">
+        <v>3.4499187138728321E-3</v>
+      </c>
+      <c r="J40" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.5021087375080224E-3</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6996184730144809E-3</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.5381526985519126E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>1170</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1">
+      <c r="B41" s="1">
+        <v>3.7930000000000001</v>
+      </c>
+      <c r="C41" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+        <v>3.7930000000000004E-3</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>1126</v>
+      </c>
       <c r="G41" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1" t="e">
+        <v>34</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="1" t="e">
+        <v>3.5528572718245013E-3</v>
+      </c>
+      <c r="J41" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.6082332447052354E-3</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8057821642499272E-3</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.2782164249926838E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1200</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1">
+      <c r="B42" s="1">
+        <v>3.8479999999999999</v>
+      </c>
+      <c r="C42" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+        <v>3.8479999999999999E-3</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <v>1.127</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>1127</v>
+      </c>
       <c r="G42" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1" t="e">
+        <v>35</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="1" t="e">
+        <v>3.6557029417072732E-3</v>
+      </c>
+      <c r="J42" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.7143577519024485E-3</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9119458554853735E-3</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-6.3945855485373661E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>1230</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1">
+      <c r="B43" s="1">
+        <v>3.9119999999999999</v>
+      </c>
+      <c r="C43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+        <v>3.9119999999999997E-3</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>1.127</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>1127</v>
+      </c>
       <c r="G43" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1" t="e">
+        <v>35</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K43" s="1" t="e">
+        <v>3.6557029417072732E-3</v>
+      </c>
+      <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.7143577519024485E-3</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9119458554853735E-3</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.4144514626160156E-8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>1260</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
+      <c r="B44" s="1">
+        <v>3.9790000000000001</v>
+      </c>
+      <c r="C44" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+        <v>3.9789999999999999E-3</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>1.127</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>1127</v>
+      </c>
       <c r="G44" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1" t="e">
+        <v>35</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K44" s="1" t="e">
+        <v>3.6557029417072732E-3</v>
+      </c>
+      <c r="J44" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.7143577519024485E-3</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9119458554853735E-3</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.7054144514626379E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>1290</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1">
+      <c r="B45" s="1">
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="C45" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+        <v>4.0419999999999996E-3</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>1128</v>
+      </c>
       <c r="G45" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1" t="e">
+        <v>36</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K45" s="1" t="e">
+        <v>3.7584558491927478E-3</v>
+      </c>
+      <c r="J45" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.8204822590996606E-3</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0181095467208194E-3</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.3890453279180185E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1320</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1">
+      <c r="B46" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C46" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>1.129</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>1129</v>
+      </c>
       <c r="G46" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1" t="e">
+        <v>37</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K46" s="1" t="e">
+        <v>3.8611161197259283E-3</v>
+      </c>
+      <c r="J46" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.9266067662968732E-3</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1242732379562653E-3</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2.4273237956265806E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>1350</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1">
+      <c r="B47" s="1">
+        <v>4.16</v>
+      </c>
+      <c r="C47" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+        <v>4.1600000000000005E-3</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>1130</v>
+      </c>
       <c r="G47" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1" t="e">
+        <v>38</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K47" s="1" t="e">
+        <v>3.9636838785257278E-3</v>
+      </c>
+      <c r="J47" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.0327312734940862E-3</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="5"/>
+        <v>4.2304369291917112E-3</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-7.0436929191710664E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>1380</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1">
+      <c r="B48" s="1">
+        <v>4.2140000000000004</v>
+      </c>
+      <c r="C48" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+        <v>4.2140000000000007E-3</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>1130</v>
+      </c>
       <c r="G48" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1" t="e">
+        <v>38</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K48" s="1" t="e">
+        <v>3.9636838785257278E-3</v>
+      </c>
+      <c r="J48" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.0327312734940862E-3</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="5"/>
+        <v>4.2304369291917112E-3</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6436929191710435E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>1410</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1">
+      <c r="B49" s="1">
+        <v>4.266</v>
+      </c>
+      <c r="C49" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+        <v>4.2659999999999998E-3</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>1130</v>
+      </c>
       <c r="G49" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1" t="e">
+        <v>38</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K49" s="1" t="e">
+        <v>3.9636838785257278E-3</v>
+      </c>
+      <c r="J49" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.0327312734940862E-3</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="5"/>
+        <v>4.2304369291917112E-3</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.556307080828866E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>1440</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1">
+      <c r="B50" s="1">
+        <v>4.3129999999999997</v>
+      </c>
+      <c r="C50" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+        <v>4.313E-3</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <v>1.131</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>1131</v>
+      </c>
       <c r="G50" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1" t="e">
+        <v>39</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K50" s="1" t="e">
+        <v>4.0661592505854801E-3</v>
+      </c>
+      <c r="J50" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.1388557806912992E-3</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="5"/>
+        <v>4.336600620427157E-3</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2.3600620427157055E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>1470</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1">
+      <c r="B51" s="1">
+        <v>4.3780000000000001</v>
+      </c>
+      <c r="C51" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+        <v>4.3779999999999999E-3</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <v>1.131</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>1131</v>
+      </c>
       <c r="G51" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1" t="e">
+        <v>39</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K51" s="1" t="e">
+        <v>4.0661592505854801E-3</v>
+      </c>
+      <c r="J51" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.1388557806912992E-3</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="5"/>
+        <v>4.336600620427157E-3</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.1399379572842898E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>1500</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1">
+      <c r="B52" s="1">
+        <v>4.4260000000000002</v>
+      </c>
+      <c r="C52" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+        <v>4.4260000000000002E-3</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>1132</v>
+      </c>
       <c r="G52" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1" t="e">
+        <v>40</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K52" s="1" t="e">
+        <v>4.1685423606734485E-3</v>
+      </c>
+      <c r="J52" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.2449802878885114E-3</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="5"/>
+        <v>4.4427643116626038E-3</v>
       </c>
       <c r="L52" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6764311662603552E-5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="Q24:R24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/T7B - PONTES.xlsx
+++ b/T7B - PONTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECAA440-097B-40C8-8209-8440850F3CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CB3210-C327-4371-95E4-309CAF0F19AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5612D8A9-4F74-4819-A33D-9867F612D722}"/>
   </bookViews>
@@ -271,6 +271,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +327,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,6 +410,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,7 +428,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +566,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -741,7 +759,7 @@
             <c:numRef>
               <c:f>'Parte 2'!$C$2:$C$52</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -921,7 +939,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1100,7 +1118,7 @@
             <c:numRef>
               <c:f>'Parte 2'!$I$2:$I$52</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1280,7 +1298,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1459,7 +1477,7 @@
             <c:numRef>
               <c:f>'Parte 2'!$J$2:$J$52</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1852,7 +1870,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4254,7 +4272,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4328,7 +4346,7 @@
         <f>ABS(F2-C2)/C2</f>
         <v>5.1969823973177249E-3</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -4337,7 +4355,7 @@
       <c r="M2" s="1">
         <v>1000</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -4378,7 +4396,7 @@
         <f t="shared" ref="I3:I6" si="4">ABS(F3-C3)/C3</f>
         <v>2.0896226415094424E-2</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -4387,7 +4405,7 @@
       <c r="M3" s="1">
         <v>1000</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="3" t="s">
         <v>17</v>
       </c>
@@ -4426,7 +4444,7 @@
         <f t="shared" si="4"/>
         <v>1.518518518518513E-2</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4434,7 +4452,7 @@
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="1">
@@ -4463,7 +4481,7 @@
         <f t="shared" si="4"/>
         <v>1.1155015197568334E-2</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4471,7 +4489,7 @@
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="1">
@@ -4500,7 +4518,7 @@
         <f t="shared" si="4"/>
         <v>4.5016077170417276E-3</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4522,8 +4540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2744CCB0-2F7D-4947-8B22-CBAF80B9ABCC}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4577,11 +4595,13 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="13">
         <f>B2*0.001</f>
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E2" s="1">
         <v>1.0920000000000001</v>
       </c>
@@ -4593,16 +4613,18 @@
         <f>F2-$F$2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
+      <c r="H2" s="1">
+        <v>24</v>
+      </c>
+      <c r="I2" s="13">
         <f>(G2*$P$2)/(4*$P$3+2*G2)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="13">
         <f>(G2*$P$2)/(4*$P$3)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="13">
         <f>G2*$O$24+$P$24</f>
         <v>1.9621666224476156E-4</v>
       </c>
@@ -4624,11 +4646,13 @@
       <c r="B3" s="1">
         <v>0.23499999999999999</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="13">
         <f t="shared" ref="C3:C52" si="0">B3*0.001</f>
         <v>2.3499999999999999E-4</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E3" s="1">
         <v>1.093</v>
       </c>
@@ -4640,16 +4664,18 @@
         <f t="shared" ref="G3:G52" si="2">F3-$F$2</f>
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
+      <c r="H3" s="1">
+        <v>24</v>
+      </c>
+      <c r="I3" s="13">
         <f t="shared" ref="I3:I52" si="3">(G3*$P$2)/(4*$P$3+2*G3)</f>
         <v>1.060758797653959E-4</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="13">
         <f t="shared" ref="J3:J52" si="4">(G3*$P$2)/(4*$P$3)</f>
         <v>1.0612450719721279E-4</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="13">
         <f t="shared" ref="K3:K52" si="5">G3*$O$24+$P$24</f>
         <v>3.023803534802076E-4</v>
       </c>
@@ -4671,11 +4697,13 @@
       <c r="B4" s="1">
         <v>0.47499999999999998</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="13">
         <f t="shared" si="0"/>
         <v>4.75E-4</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E4" s="1">
         <v>1.0940000000000001</v>
       </c>
@@ -4687,16 +4715,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
+      <c r="H4" s="1">
+        <v>24</v>
+      </c>
+      <c r="I4" s="13">
         <f t="shared" si="3"/>
         <v>2.1205459375286251E-4</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="13">
         <f t="shared" si="4"/>
         <v>2.1224901439442559E-4</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="13">
         <f t="shared" si="5"/>
         <v>4.0854404471565365E-4</v>
       </c>
@@ -4712,11 +4742,13 @@
       <c r="B5" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="13">
         <f t="shared" si="0"/>
         <v>5.6000000000000006E-4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E5" s="1">
         <v>1.095</v>
       </c>
@@ -4728,16 +4760,18 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
+        <v>25</v>
+      </c>
+      <c r="I5" s="13">
         <f t="shared" si="3"/>
         <v>3.1793627540743454E-4</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="13">
         <f t="shared" si="4"/>
         <v>3.1837352159163837E-4</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="13">
         <f>G5*$O$24+$P$24</f>
         <v>5.1470773595109964E-4</v>
       </c>
@@ -4753,11 +4787,13 @@
       <c r="B6" s="1">
         <v>0.64</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="13">
         <f t="shared" si="0"/>
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E6" s="1">
         <v>1.0960000000000001</v>
       </c>
@@ -4769,16 +4805,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
+        <v>25</v>
+      </c>
+      <c r="I6" s="13">
         <f t="shared" si="3"/>
         <v>4.237210579298984E-4</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="13">
         <f t="shared" si="4"/>
         <v>4.2449802878885117E-4</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="13">
         <f t="shared" si="5"/>
         <v>6.2087142718654574E-4</v>
       </c>
@@ -4794,11 +4832,13 @@
       <c r="B7" s="1">
         <v>0.72699999999999998</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="13">
         <f t="shared" si="0"/>
         <v>7.27E-4</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E7" s="1">
         <v>1.097</v>
       </c>
@@ -4810,16 +4850,18 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
+      <c r="H7" s="1">
+        <v>25</v>
+      </c>
+      <c r="I7" s="13">
         <f t="shared" si="3"/>
         <v>5.2940907427735087E-4</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="13">
         <f t="shared" si="4"/>
         <v>5.3062253598606393E-4</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="13">
         <f t="shared" si="5"/>
         <v>7.2703511842199184E-4</v>
       </c>
@@ -4835,11 +4877,13 @@
       <c r="B8" s="1">
         <v>0.81</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="13">
         <f t="shared" si="0"/>
         <v>8.1000000000000006E-4</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E8" s="1">
         <v>1.0980000000000001</v>
       </c>
@@ -4851,16 +4895,18 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
+      <c r="H8" s="1">
+        <v>25</v>
+      </c>
+      <c r="I8" s="13">
         <f t="shared" si="3"/>
         <v>6.35000457163756E-4</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="13">
         <f t="shared" si="4"/>
         <v>6.3674704318327673E-4</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="13">
         <f t="shared" si="5"/>
         <v>8.3319880965743783E-4</v>
       </c>
@@ -4876,11 +4922,13 @@
       <c r="B9" s="1">
         <v>0.89300000000000002</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="13">
         <f t="shared" si="0"/>
         <v>8.9300000000000002E-4</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E9" s="1">
         <v>1.0980000000000001</v>
       </c>
@@ -4892,16 +4940,18 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
+      <c r="H9" s="1">
+        <v>25</v>
+      </c>
+      <c r="I9" s="13">
         <f t="shared" si="3"/>
         <v>6.35000457163756E-4</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="13">
         <f t="shared" si="4"/>
         <v>6.3674704318327673E-4</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="13">
         <f t="shared" si="5"/>
         <v>8.3319880965743783E-4</v>
       </c>
@@ -4917,11 +4967,13 @@
       <c r="B10" s="1">
         <v>0.97399999999999998</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="13">
         <f t="shared" si="0"/>
         <v>9.7400000000000004E-4</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E10" s="1">
         <v>1.099</v>
       </c>
@@ -4933,16 +4985,18 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
+      <c r="H10" s="1">
+        <v>26</v>
+      </c>
+      <c r="I10" s="13">
         <f t="shared" si="3"/>
         <v>7.4049533906050079E-4</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="13">
         <f t="shared" si="4"/>
         <v>7.4287155038048954E-4</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="13">
         <f t="shared" si="5"/>
         <v>9.3936250089288382E-4</v>
       </c>
@@ -4958,11 +5012,13 @@
       <c r="B11" s="1">
         <v>1.0620000000000001</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="13">
         <f t="shared" si="0"/>
         <v>1.062E-3</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E11" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -4974,16 +5030,18 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
+      <c r="H11" s="1">
+        <v>26</v>
+      </c>
+      <c r="I11" s="13">
         <f t="shared" si="3"/>
         <v>8.4589385219694898E-4</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="13">
         <f t="shared" si="4"/>
         <v>8.4899605757770235E-4</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="13">
         <f t="shared" si="5"/>
         <v>1.0455261921283299E-3</v>
       </c>
@@ -4999,11 +5057,13 @@
       <c r="B12" s="1">
         <v>1.1319999999999999</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="13">
         <f t="shared" si="0"/>
         <v>1.132E-3</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E12" s="1">
         <v>1.101</v>
       </c>
@@ -5015,16 +5075,18 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
+      <c r="H12" s="1">
+        <v>26</v>
+      </c>
+      <c r="I12" s="13">
         <f t="shared" si="3"/>
         <v>9.511961285609933E-4</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="13">
         <f t="shared" si="4"/>
         <v>9.5512056477491515E-4</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="13">
         <f t="shared" si="5"/>
         <v>1.151689883363776E-3</v>
       </c>
@@ -5040,11 +5102,13 @@
       <c r="B13" s="1">
         <v>1.2350000000000001</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="13">
         <f t="shared" si="0"/>
         <v>1.2350000000000002E-3</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E13" s="1">
         <v>1.101</v>
       </c>
@@ -5056,16 +5120,18 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="H13" s="1">
+        <v>26</v>
+      </c>
+      <c r="I13" s="13">
         <f t="shared" si="3"/>
         <v>9.511961285609933E-4</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="13">
         <f t="shared" si="4"/>
         <v>9.5512056477491515E-4</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="13">
         <f t="shared" si="5"/>
         <v>1.151689883363776E-3</v>
       </c>
@@ -5081,11 +5147,13 @@
       <c r="B14" s="1">
         <v>1.3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="13">
         <f t="shared" si="0"/>
         <v>1.3000000000000002E-3</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E14" s="1">
         <v>1.1020000000000001</v>
       </c>
@@ -5097,16 +5165,18 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
+      <c r="H14" s="1">
+        <v>26</v>
+      </c>
+      <c r="I14" s="13">
         <f t="shared" si="3"/>
         <v>1.0564022998996074E-3</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="13">
         <f t="shared" si="4"/>
         <v>1.0612450719721279E-3</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="13">
         <f t="shared" si="5"/>
         <v>1.2578535745992221E-3</v>
       </c>
@@ -5122,11 +5192,13 @@
       <c r="B15" s="1">
         <v>1.379</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="13">
         <f t="shared" si="0"/>
         <v>1.379E-3</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E15" s="1">
         <v>1.103</v>
       </c>
@@ -5138,16 +5210,18 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
+      <c r="H15" s="1">
+        <v>27</v>
+      </c>
+      <c r="I15" s="13">
         <f t="shared" si="3"/>
         <v>1.1615124977193943E-3</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="13">
         <f t="shared" si="4"/>
         <v>1.1673695791693407E-3</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="13">
         <f t="shared" si="5"/>
         <v>1.364017265834668E-3</v>
       </c>
@@ -5163,11 +5237,13 @@
       <c r="B16" s="1">
         <v>1.46</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="13">
         <f t="shared" si="0"/>
         <v>1.4599999999999999E-3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E16" s="1">
         <v>1.1040000000000001</v>
       </c>
@@ -5179,16 +5255,18 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1">
+      <c r="H16" s="1">
+        <v>27</v>
+      </c>
+      <c r="I16" s="13">
         <f t="shared" si="3"/>
         <v>1.2665268532871341E-3</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="13">
         <f t="shared" si="4"/>
         <v>1.2734940863665535E-3</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="13">
         <f t="shared" si="5"/>
         <v>1.4701809570701141E-3</v>
       </c>
@@ -5204,11 +5282,13 @@
       <c r="B17" s="1">
         <v>1.5369999999999999</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="13">
         <f t="shared" si="0"/>
         <v>1.537E-3</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E17" s="1">
         <v>1.105</v>
       </c>
@@ -5220,16 +5300,18 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
+      <c r="H17" s="1">
+        <v>27</v>
+      </c>
+      <c r="I17" s="13">
         <f t="shared" si="3"/>
         <v>1.3714454976303317E-3</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="13">
         <f t="shared" si="4"/>
         <v>1.3796185935637663E-3</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="13">
         <f t="shared" si="5"/>
         <v>1.5763446483055602E-3</v>
       </c>
@@ -5245,11 +5327,13 @@
       <c r="B18" s="1">
         <v>1.61</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="13">
         <f t="shared" si="0"/>
         <v>1.6100000000000001E-3</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E18" s="1">
         <v>1.105</v>
       </c>
@@ -5261,16 +5345,18 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1">
+      <c r="H18" s="1">
+        <v>27</v>
+      </c>
+      <c r="I18" s="13">
         <f t="shared" si="3"/>
         <v>1.3714454976303317E-3</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="13">
         <f t="shared" si="4"/>
         <v>1.3796185935637663E-3</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="13">
         <f t="shared" si="5"/>
         <v>1.5763446483055602E-3</v>
       </c>
@@ -5286,11 +5372,13 @@
       <c r="B19" s="1">
         <v>1.6919999999999999</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="13">
         <f t="shared" si="0"/>
         <v>1.6919999999999999E-3</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E19" s="1">
         <v>1.1060000000000001</v>
       </c>
@@ -5302,16 +5390,18 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1">
+      <c r="H19" s="1">
+        <v>27</v>
+      </c>
+      <c r="I19" s="13">
         <f t="shared" si="3"/>
         <v>1.4762685615377607E-3</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="13">
         <f t="shared" si="4"/>
         <v>1.4857431007609791E-3</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="13">
         <f t="shared" si="5"/>
         <v>1.6825083395410061E-3</v>
       </c>
@@ -5327,11 +5417,13 @@
       <c r="B20" s="1">
         <v>1.67</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="13">
         <f t="shared" si="0"/>
         <v>1.67E-3</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E20" s="1">
         <v>1.107</v>
       </c>
@@ -5343,16 +5435,18 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1">
+      <c r="H20" s="1">
+        <v>28</v>
+      </c>
+      <c r="I20" s="13">
         <f t="shared" si="3"/>
         <v>1.5809961755600074E-3</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="13">
         <f t="shared" si="4"/>
         <v>1.5918676079581919E-3</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="13">
         <f t="shared" si="5"/>
         <v>1.7886720307764522E-3</v>
       </c>
@@ -5368,11 +5462,13 @@
       <c r="B21" s="1">
         <v>1.843</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="13">
         <f t="shared" si="0"/>
         <v>1.843E-3</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E21" s="1">
         <v>1.107</v>
       </c>
@@ -5384,16 +5480,18 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1">
+      <c r="H21" s="1">
+        <v>28</v>
+      </c>
+      <c r="I21" s="13">
         <f t="shared" si="3"/>
         <v>1.5809961755600074E-3</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="13">
         <f t="shared" si="4"/>
         <v>1.5918676079581919E-3</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="13">
         <f t="shared" si="5"/>
         <v>1.7886720307764522E-3</v>
       </c>
@@ -5409,11 +5507,13 @@
       <c r="B22" s="1">
         <v>1.925</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="13">
         <f t="shared" si="0"/>
         <v>1.9250000000000001E-3</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E22" s="1">
         <v>1.1080000000000001</v>
       </c>
@@ -5425,16 +5525,18 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1">
+      <c r="H22" s="1">
+        <v>28</v>
+      </c>
+      <c r="I22" s="13">
         <f t="shared" si="3"/>
         <v>1.6856284700100118E-3</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="13">
         <f t="shared" si="4"/>
         <v>1.6979921151554047E-3</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="13">
         <f t="shared" si="5"/>
         <v>1.8948357220118983E-3</v>
       </c>
@@ -5450,11 +5552,13 @@
       <c r="B23" s="1">
         <v>2</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="13">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E23" s="1">
         <v>1.109</v>
       </c>
@@ -5466,16 +5570,18 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1">
+      <c r="H23" s="1">
+        <v>28</v>
+      </c>
+      <c r="I23" s="13">
         <f t="shared" si="3"/>
         <v>1.79016557496361E-3</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="13">
         <f t="shared" si="4"/>
         <v>1.8041166223526177E-3</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="13">
         <f t="shared" si="5"/>
         <v>2.0009994132473442E-3</v>
       </c>
@@ -5483,13 +5589,13 @@
         <f t="shared" si="6"/>
         <v>-9.9941324734412196E-7</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -5498,12 +5604,14 @@
       <c r="B24" s="1">
         <v>2.0720000000000001</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="13">
         <f t="shared" si="0"/>
         <v>2.0720000000000001E-3</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1">
+      <c r="D24" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E24" s="14">
         <v>1.1100000000000001</v>
       </c>
       <c r="F24" s="1">
@@ -5514,16 +5622,18 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1">
+      <c r="H24" s="1">
+        <v>28</v>
+      </c>
+      <c r="I24" s="13">
         <f t="shared" si="3"/>
         <v>1.8946076202600707E-3</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="13">
         <f t="shared" si="4"/>
         <v>1.9102411295498303E-3</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="13">
         <f t="shared" si="5"/>
         <v>2.1071631044827905E-3</v>
       </c>
@@ -5541,10 +5651,10 @@
       <c r="P24" s="5">
         <v>1.9621666224476156E-4</v>
       </c>
-      <c r="Q24" s="10" t="s">
+      <c r="Q24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="R24" s="11"/>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -5553,11 +5663,13 @@
       <c r="B25" s="1">
         <v>2.1760000000000002</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="13">
         <f t="shared" si="0"/>
         <v>2.1760000000000004E-3</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E25" s="1">
         <v>1.111</v>
       </c>
@@ -5569,16 +5681,18 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1">
+      <c r="H25" s="1">
+        <v>29</v>
+      </c>
+      <c r="I25" s="13">
         <f t="shared" si="3"/>
         <v>1.9989547355026361E-3</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="13">
         <f t="shared" si="4"/>
         <v>2.0163656367470431E-3</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="13">
         <f t="shared" si="5"/>
         <v>2.2133267957182364E-3</v>
       </c>
@@ -5595,10 +5709,10 @@
       <c r="P25" s="5">
         <v>1.3883972095916352E-5</v>
       </c>
-      <c r="Q25" s="9" t="s">
+      <c r="Q25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R25" s="9"/>
+      <c r="R25" s="10"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -5607,11 +5721,13 @@
       <c r="B26" s="1">
         <v>2.3039999999999998</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="13">
         <f t="shared" si="0"/>
         <v>2.3040000000000001E-3</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E26" s="1">
         <v>1.1120000000000001</v>
       </c>
@@ -5623,16 +5739,18 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1">
+      <c r="H26" s="1">
+        <v>29</v>
+      </c>
+      <c r="I26" s="13">
         <f t="shared" si="3"/>
         <v>2.103207050059053E-3</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="13">
         <f t="shared" si="4"/>
         <v>2.1224901439442557E-3</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="13">
         <f t="shared" si="5"/>
         <v>2.3194904869536827E-3</v>
       </c>
@@ -5649,10 +5767,10 @@
       <c r="P26" s="5">
         <v>4.9693147055673696E-5</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="Q26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="R26" s="9"/>
+      <c r="R26" s="10"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -5661,11 +5779,13 @@
       <c r="B27" s="1">
         <v>2.4319999999999999</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="13">
         <f t="shared" si="0"/>
         <v>2.4320000000000001E-3</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E27" s="1">
         <v>1.113</v>
       </c>
@@ -5677,16 +5797,18 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1">
+      <c r="H27" s="1">
+        <v>29</v>
+      </c>
+      <c r="I27" s="13">
         <f t="shared" si="3"/>
         <v>2.2073646930621141E-3</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="13">
         <f t="shared" si="4"/>
         <v>2.2286146511414687E-3</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="13">
         <f t="shared" si="5"/>
         <v>2.4256541781891286E-3</v>
       </c>
@@ -5702,11 +5824,13 @@
       <c r="B28" s="1">
         <v>2.5249999999999999</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="13">
         <f t="shared" si="0"/>
         <v>2.5249999999999999E-3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E28" s="1">
         <v>1.1140000000000001</v>
       </c>
@@ -5718,16 +5842,18 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1">
+      <c r="H28" s="1">
+        <v>29</v>
+      </c>
+      <c r="I28" s="13">
         <f t="shared" si="3"/>
         <v>2.3114277934101844E-3</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="13">
         <f t="shared" si="4"/>
         <v>2.3347391583386813E-3</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="13">
         <f t="shared" si="5"/>
         <v>2.5318178694245744E-3</v>
       </c>
@@ -5743,11 +5869,13 @@
       <c r="B29" s="1">
         <v>2.63</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="13">
         <f t="shared" si="0"/>
         <v>2.63E-3</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E29" s="1">
         <v>1.115</v>
       </c>
@@ -5759,16 +5887,18 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1">
+      <c r="H29" s="1">
+        <v>30</v>
+      </c>
+      <c r="I29" s="13">
         <f t="shared" si="3"/>
         <v>2.4153964797677375E-3</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="13">
         <f t="shared" si="4"/>
         <v>2.4408636655358943E-3</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="13">
         <f t="shared" si="5"/>
         <v>2.6379815606600208E-3</v>
       </c>
@@ -5784,11 +5914,13 @@
       <c r="B30" s="1">
         <v>2.7919999999999998</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="13">
         <f t="shared" si="0"/>
         <v>2.7919999999999998E-3</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E30" s="1">
         <v>1.1160000000000001</v>
       </c>
@@ -5800,16 +5932,18 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1">
+      <c r="H30" s="1">
+        <v>30</v>
+      </c>
+      <c r="I30" s="13">
         <f t="shared" si="3"/>
         <v>2.5192708805658838E-3</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="13">
         <f t="shared" si="4"/>
         <v>2.5469881727331069E-3</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="13">
         <f t="shared" si="5"/>
         <v>2.7441452518954666E-3</v>
       </c>
@@ -5825,11 +5959,13 @@
       <c r="B31" s="1">
         <v>2.89</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="13">
         <f t="shared" si="0"/>
         <v>2.8900000000000002E-3</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E31" s="1">
         <v>1.117</v>
       </c>
@@ -5841,16 +5977,18 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1">
+      <c r="H31" s="1">
+        <v>30</v>
+      </c>
+      <c r="I31" s="13">
         <f t="shared" si="3"/>
         <v>2.6230511240029008E-3</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="13">
         <f t="shared" si="4"/>
         <v>2.65311267993032E-3</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="13">
         <f t="shared" si="5"/>
         <v>2.8503089431309125E-3</v>
       </c>
@@ -5866,11 +6004,13 @@
       <c r="B32" s="1">
         <v>2.9980000000000002</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="13">
         <f t="shared" si="0"/>
         <v>2.9980000000000002E-3</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E32" s="1">
         <v>1.1180000000000001</v>
       </c>
@@ -5882,16 +6022,18 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1">
+      <c r="H32" s="1">
+        <v>30</v>
+      </c>
+      <c r="I32" s="13">
         <f t="shared" si="3"/>
         <v>2.7267373380447583E-3</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="13">
         <f t="shared" si="4"/>
         <v>2.7592371871275325E-3</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="13">
         <f t="shared" si="5"/>
         <v>2.9564726343663588E-3</v>
       </c>
@@ -5907,11 +6049,13 @@
       <c r="B33" s="1">
         <v>3.1</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="13">
         <f t="shared" si="0"/>
         <v>3.1000000000000003E-3</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E33" s="1">
         <v>1.119</v>
       </c>
@@ -5923,16 +6067,18 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1">
+      <c r="H33" s="1">
+        <v>31</v>
+      </c>
+      <c r="I33" s="13">
         <f t="shared" si="3"/>
         <v>2.8303296504256477E-3</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="13">
         <f t="shared" si="4"/>
         <v>2.8653616943247456E-3</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="13">
         <f t="shared" si="5"/>
         <v>3.0626363256018047E-3</v>
       </c>
@@ -5948,11 +6094,13 @@
       <c r="B34" s="1">
         <v>3.1930000000000001</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="13">
         <f t="shared" si="0"/>
         <v>3.1930000000000001E-3</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E34" s="1">
         <v>1.1200000000000001</v>
       </c>
@@ -5964,16 +6112,18 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1">
+      <c r="H34" s="1">
+        <v>31</v>
+      </c>
+      <c r="I34" s="13">
         <f t="shared" si="3"/>
         <v>2.9338281886485016E-3</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="13">
         <f t="shared" si="4"/>
         <v>2.9714862015219582E-3</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="13">
         <f t="shared" si="5"/>
         <v>3.1688000168372506E-3</v>
       </c>
@@ -5989,11 +6139,13 @@
       <c r="B35" s="1">
         <v>3.28</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="13">
         <f t="shared" si="0"/>
         <v>3.2799999999999999E-3</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E35" s="1">
         <v>1.121</v>
       </c>
@@ -6005,16 +6157,18 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1">
+      <c r="H35" s="1">
+        <v>31</v>
+      </c>
+      <c r="I35" s="13">
         <f t="shared" si="3"/>
         <v>3.0372330799855233E-3</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="13">
         <f t="shared" si="4"/>
         <v>3.0776107087191712E-3</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="13">
         <f t="shared" si="5"/>
         <v>3.2749637080726969E-3</v>
       </c>
@@ -6030,11 +6184,13 @@
       <c r="B36" s="1">
         <v>3.387</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="13">
         <f t="shared" si="0"/>
         <v>3.3870000000000003E-3</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E36" s="1">
         <v>1.1220000000000001</v>
       </c>
@@ -6046,16 +6202,18 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1">
+      <c r="H36" s="1">
+        <v>31</v>
+      </c>
+      <c r="I36" s="13">
         <f t="shared" si="3"/>
         <v>3.1405444514787011E-3</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="13">
         <f t="shared" si="4"/>
         <v>3.1837352159163838E-3</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="13">
         <f t="shared" si="5"/>
         <v>3.3811273993081428E-3</v>
       </c>
@@ -6071,11 +6229,13 @@
       <c r="B37" s="1">
         <v>3.4820000000000002</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="13">
         <f t="shared" si="0"/>
         <v>3.4820000000000003E-3</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E37" s="1">
         <v>1.123</v>
       </c>
@@ -6087,16 +6247,18 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1">
+      <c r="H37" s="1">
+        <v>32</v>
+      </c>
+      <c r="I37" s="13">
         <f t="shared" si="3"/>
         <v>3.2437624299403367E-3</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="13">
         <f t="shared" si="4"/>
         <v>3.2898597231135968E-3</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="13">
         <f t="shared" si="5"/>
         <v>3.4872910905435891E-3</v>
       </c>
@@ -6112,11 +6274,13 @@
       <c r="B38" s="1">
         <v>3.5539999999999998</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="13">
         <f t="shared" si="0"/>
         <v>3.5539999999999999E-3</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E38" s="1">
         <v>1.1240000000000001</v>
       </c>
@@ -6128,16 +6292,18 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1">
+      <c r="H38" s="1">
+        <v>32</v>
+      </c>
+      <c r="I38" s="13">
         <f t="shared" si="3"/>
         <v>3.3468871419535555E-3</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="13">
         <f t="shared" si="4"/>
         <v>3.3959842303108094E-3</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="13">
         <f t="shared" si="5"/>
         <v>3.593454781779035E-3</v>
       </c>
@@ -6153,11 +6319,13 @@
       <c r="B39" s="1">
         <v>3.64</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="13">
         <f t="shared" si="0"/>
         <v>3.64E-3</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E39" s="1">
         <v>1.125</v>
       </c>
@@ -6169,16 +6337,18 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1">
+      <c r="H39" s="1">
+        <v>32</v>
+      </c>
+      <c r="I39" s="13">
         <f t="shared" si="3"/>
         <v>3.4499187138728321E-3</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="13">
         <f t="shared" si="4"/>
         <v>3.5021087375080224E-3</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="13">
         <f t="shared" si="5"/>
         <v>3.6996184730144809E-3</v>
       </c>
@@ -6194,11 +6364,13 @@
       <c r="B40" s="1">
         <v>3.7250000000000001</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="13">
         <f t="shared" si="0"/>
         <v>3.725E-3</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E40" s="1">
         <v>1.125</v>
       </c>
@@ -6210,16 +6382,18 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1">
+      <c r="H40" s="1">
+        <v>32</v>
+      </c>
+      <c r="I40" s="13">
         <f t="shared" si="3"/>
         <v>3.4499187138728321E-3</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="13">
         <f t="shared" si="4"/>
         <v>3.5021087375080224E-3</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="13">
         <f t="shared" si="5"/>
         <v>3.6996184730144809E-3</v>
       </c>
@@ -6235,11 +6409,13 @@
       <c r="B41" s="1">
         <v>3.7930000000000001</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="13">
         <f t="shared" si="0"/>
         <v>3.7930000000000004E-3</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E41" s="1">
         <v>1.1259999999999999</v>
       </c>
@@ -6251,16 +6427,18 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1">
+      <c r="H41" s="1">
+        <v>32</v>
+      </c>
+      <c r="I41" s="13">
         <f t="shared" si="3"/>
         <v>3.5528572718245013E-3</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="13">
         <f t="shared" si="4"/>
         <v>3.6082332447052354E-3</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="13">
         <f t="shared" si="5"/>
         <v>3.8057821642499272E-3</v>
       </c>
@@ -6276,11 +6454,13 @@
       <c r="B42" s="1">
         <v>3.8479999999999999</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="13">
         <f t="shared" si="0"/>
         <v>3.8479999999999999E-3</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E42" s="1">
         <v>1.127</v>
       </c>
@@ -6292,16 +6472,18 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1">
+      <c r="H42" s="1">
+        <v>33</v>
+      </c>
+      <c r="I42" s="13">
         <f t="shared" si="3"/>
         <v>3.6557029417072732E-3</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="13">
         <f t="shared" si="4"/>
         <v>3.7143577519024485E-3</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="13">
         <f t="shared" si="5"/>
         <v>3.9119458554853735E-3</v>
       </c>
@@ -6317,11 +6499,13 @@
       <c r="B43" s="1">
         <v>3.9119999999999999</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="13">
         <f t="shared" si="0"/>
         <v>3.9119999999999997E-3</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E43" s="1">
         <v>1.127</v>
       </c>
@@ -6333,16 +6517,18 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1">
+      <c r="H43" s="1">
+        <v>33</v>
+      </c>
+      <c r="I43" s="13">
         <f t="shared" si="3"/>
         <v>3.6557029417072732E-3</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="13">
         <f t="shared" si="4"/>
         <v>3.7143577519024485E-3</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="13">
         <f t="shared" si="5"/>
         <v>3.9119458554853735E-3</v>
       </c>
@@ -6358,11 +6544,13 @@
       <c r="B44" s="1">
         <v>3.9790000000000001</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="13">
         <f t="shared" si="0"/>
         <v>3.9789999999999999E-3</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E44" s="1">
         <v>1.127</v>
       </c>
@@ -6374,16 +6562,18 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1">
+      <c r="H44" s="1">
+        <v>33</v>
+      </c>
+      <c r="I44" s="13">
         <f t="shared" si="3"/>
         <v>3.6557029417072732E-3</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="13">
         <f t="shared" si="4"/>
         <v>3.7143577519024485E-3</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="13">
         <f t="shared" si="5"/>
         <v>3.9119458554853735E-3</v>
       </c>
@@ -6399,11 +6589,13 @@
       <c r="B45" s="1">
         <v>4.0419999999999998</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="13">
         <f t="shared" si="0"/>
         <v>4.0419999999999996E-3</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E45" s="1">
         <v>1.1279999999999999</v>
       </c>
@@ -6415,16 +6607,18 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1">
+      <c r="H45" s="1">
+        <v>33</v>
+      </c>
+      <c r="I45" s="13">
         <f t="shared" si="3"/>
         <v>3.7584558491927478E-3</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="13">
         <f t="shared" si="4"/>
         <v>3.8204822590996606E-3</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="13">
         <f t="shared" si="5"/>
         <v>4.0181095467208194E-3</v>
       </c>
@@ -6440,11 +6634,13 @@
       <c r="B46" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="13">
         <f t="shared" si="0"/>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E46" s="1">
         <v>1.129</v>
       </c>
@@ -6456,16 +6652,18 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1">
+      <c r="H46" s="1">
+        <v>33</v>
+      </c>
+      <c r="I46" s="13">
         <f t="shared" si="3"/>
         <v>3.8611161197259283E-3</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="13">
         <f t="shared" si="4"/>
         <v>3.9266067662968732E-3</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="13">
         <f t="shared" si="5"/>
         <v>4.1242732379562653E-3</v>
       </c>
@@ -6481,11 +6679,13 @@
       <c r="B47" s="1">
         <v>4.16</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="13">
         <f t="shared" si="0"/>
         <v>4.1600000000000005E-3</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E47" s="1">
         <v>1.1299999999999999</v>
       </c>
@@ -6497,16 +6697,18 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1">
+      <c r="H47" s="1">
+        <v>33</v>
+      </c>
+      <c r="I47" s="13">
         <f t="shared" si="3"/>
         <v>3.9636838785257278E-3</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="13">
         <f t="shared" si="4"/>
         <v>4.0327312734940862E-3</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="13">
         <f t="shared" si="5"/>
         <v>4.2304369291917112E-3</v>
       </c>
@@ -6522,11 +6724,13 @@
       <c r="B48" s="1">
         <v>4.2140000000000004</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="13">
         <f t="shared" si="0"/>
         <v>4.2140000000000007E-3</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E48" s="1">
         <v>1.1299999999999999</v>
       </c>
@@ -6538,16 +6742,18 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1">
+      <c r="H48" s="1">
+        <v>33</v>
+      </c>
+      <c r="I48" s="13">
         <f t="shared" si="3"/>
         <v>3.9636838785257278E-3</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="13">
         <f t="shared" si="4"/>
         <v>4.0327312734940862E-3</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="13">
         <f t="shared" si="5"/>
         <v>4.2304369291917112E-3</v>
       </c>
@@ -6563,11 +6769,13 @@
       <c r="B49" s="1">
         <v>4.266</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="13">
         <f t="shared" si="0"/>
         <v>4.2659999999999998E-3</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E49" s="1">
         <v>1.1299999999999999</v>
       </c>
@@ -6579,16 +6787,18 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1">
+      <c r="H49" s="1">
+        <v>33</v>
+      </c>
+      <c r="I49" s="13">
         <f t="shared" si="3"/>
         <v>3.9636838785257278E-3</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="13">
         <f t="shared" si="4"/>
         <v>4.0327312734940862E-3</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="13">
         <f t="shared" si="5"/>
         <v>4.2304369291917112E-3</v>
       </c>
@@ -6604,11 +6814,13 @@
       <c r="B50" s="1">
         <v>4.3129999999999997</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="13">
         <f t="shared" si="0"/>
         <v>4.313E-3</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E50" s="1">
         <v>1.131</v>
       </c>
@@ -6620,16 +6832,18 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1">
+      <c r="H50" s="1">
+        <v>34</v>
+      </c>
+      <c r="I50" s="13">
         <f t="shared" si="3"/>
         <v>4.0661592505854801E-3</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="13">
         <f t="shared" si="4"/>
         <v>4.1388557806912992E-3</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="13">
         <f t="shared" si="5"/>
         <v>4.336600620427157E-3</v>
       </c>
@@ -6645,11 +6859,13 @@
       <c r="B51" s="1">
         <v>4.3780000000000001</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="13">
         <f t="shared" si="0"/>
         <v>4.3779999999999999E-3</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E51" s="1">
         <v>1.131</v>
       </c>
@@ -6661,16 +6877,18 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1">
+      <c r="H51" s="1">
+        <v>34</v>
+      </c>
+      <c r="I51" s="13">
         <f t="shared" si="3"/>
         <v>4.0661592505854801E-3</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="13">
         <f t="shared" si="4"/>
         <v>4.1388557806912992E-3</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="13">
         <f t="shared" si="5"/>
         <v>4.336600620427157E-3</v>
       </c>
@@ -6686,11 +6904,13 @@
       <c r="B52" s="1">
         <v>4.4260000000000002</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="13">
         <f t="shared" si="0"/>
         <v>4.4260000000000002E-3</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E52" s="1">
         <v>1.1319999999999999</v>
       </c>
@@ -6702,16 +6922,18 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1">
+      <c r="H52" s="1">
+        <v>34</v>
+      </c>
+      <c r="I52" s="13">
         <f t="shared" si="3"/>
         <v>4.1685423606734485E-3</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="13">
         <f t="shared" si="4"/>
         <v>4.2449802878885114E-3</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="13">
         <f t="shared" si="5"/>
         <v>4.4427643116626038E-3</v>
       </c>

--- a/T7B - PONTES.xlsx
+++ b/T7B - PONTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CB3210-C327-4371-95E4-309CAF0F19AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B4C02A-E8F1-47CE-A909-A9C7A86BC97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5612D8A9-4F74-4819-A33D-9867F612D722}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5612D8A9-4F74-4819-A33D-9867F612D722}"/>
   </bookViews>
   <sheets>
     <sheet name="Parte 1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
-  <si>
-    <r>
-      <t>R3 (codigo de cores) (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ω)</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>R3 (ohmimetro) (Ω)</t>
   </si>
@@ -68,9 +54,6 @@
   </si>
   <si>
     <t>u(R3) (%)</t>
-  </si>
-  <si>
-    <t>Erro %</t>
   </si>
   <si>
     <r>
@@ -159,9 +142,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>Voltagem</t>
-  </si>
-  <si>
     <t>u(R1)</t>
   </si>
   <si>
@@ -172,9 +152,6 @@
   </si>
   <si>
     <t>ΔV (V)</t>
-  </si>
-  <si>
-    <t>u(ΔV) (V)</t>
   </si>
   <si>
     <t>ΔV (mV)</t>
@@ -243,28 +220,90 @@
     <t>Análise estatística</t>
   </si>
   <si>
-    <t>////////</t>
-  </si>
-  <si>
     <t>±</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>0,013 mV</t>
+    <t xml:space="preserve">± 1 </t>
   </si>
   <si>
-    <t>0 mV</t>
+    <t>± 0,001</t>
   </si>
   <si>
-    <t>0,009 mV</t>
+    <t>± 1E-6</t>
   </si>
   <si>
-    <t>0,001 mV</t>
+    <t>± 1</t>
   </si>
   <si>
-    <t>0,058 mV</t>
+    <t>u(θ) (ºC)</t>
+  </si>
+  <si>
+    <t>u(R4)</t>
+  </si>
+  <si>
+    <r>
+      <t>u(ε</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ε (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R3 (código de cores) (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω)</t>
+    </r>
+  </si>
+  <si>
+    <t>Voltagem (mV)</t>
   </si>
 </sst>
 </file>
@@ -272,9 +311,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +355,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +381,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -386,11 +437,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,6 +490,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,13 +514,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -590,12 +682,49 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:forward val="5"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2077893764908052E-2"/>
+                  <c:y val="1.5224555263925342E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parte 2'!$G$2:$G$52</c:f>
+              <c:f>'Parte 2'!$F$3:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -757,7 +886,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parte 2'!$C$2:$C$52</c:f>
+              <c:f>'Parte 2'!$C$3:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="51"/>
@@ -954,7 +1083,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parte 2'!$G$2:$G$52</c:f>
+              <c:f>'Parte 2'!$F$3:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1116,7 +1245,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parte 2'!$I$2:$I$52</c:f>
+              <c:f>'Parte 2'!$I$3:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1313,7 +1442,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parte 2'!$G$2:$G$52</c:f>
+              <c:f>'Parte 2'!$F$3:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1475,7 +1604,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parte 2'!$J$2:$J$52</c:f>
+              <c:f>'Parte 2'!$J$3:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1925,8 +2054,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68709765411893076"/>
-          <c:y val="0.43756816856226305"/>
+          <c:x val="0.65999743934447219"/>
+          <c:y val="0.44684341949680806"/>
           <c:w val="0.27198581560283686"/>
           <c:h val="0.31250218722659673"/>
         </c:manualLayout>
@@ -1981,10 +2110,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2002,8 +2128,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0" l="3.937007874015748E-2" r="3.937007874015748E-2" t="0.11811023622047244" header="0.31496062992125984" footer="0.31496062992125984"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2137,7 +2263,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parte 2'!$G$2:$G$52</c:f>
+              <c:f>'Parte 2'!$F$3:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2299,7 +2425,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parte 2'!$L$2:$L$52</c:f>
+              <c:f>'Parte 2'!$L$3:$L$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2756,10 +2882,1098 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>θ(t)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Parte 2'!$H$3:$H$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="51"/>
+                  <c:pt idx="0">
+                    <c:v>0.41824120000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.41952944999999986</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42081780000000024</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.42210625000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42339479999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.42468344999999985</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.42597220000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.42597220000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.42726105000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.42855000000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.42983905000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.42983905000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.43112820000000013</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.43241744999999993</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.43370679999999978</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.43499624999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.43499624999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.43628580000000017</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.43757544999999975</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.43757544999999975</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.43886520000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.44015505000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.44144500000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.44273504999999985</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.44402519999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.44531545000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.44660579999999994</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.44789625000000011</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0.44918680000000011</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0.45047745000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0.45176820000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0.45305905000000013</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>0.45434999999999987</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>0.45564104999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>0.45693220000000012</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>0.45822344999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>0.45951479999999989</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>0.46080625000000008</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>0.46080625000000008</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>0.46209780000000011</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>0.46338945000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>0.46338945000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>0.46338945000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>0.46468119999999985</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>0.46597305000000022</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>0.46726500000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>0.46726500000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>0.46726500000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>0.46855704999999986</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>0.46855704999999986</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>0.46984920000000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Parte 2'!$H$3:$H$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="51"/>
+                  <c:pt idx="0">
+                    <c:v>0.41824120000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.41952944999999986</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42081780000000024</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.42210625000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42339479999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.42468344999999985</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.42597220000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.42597220000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.42726105000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.42855000000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.42983905000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.42983905000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.43112820000000013</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.43241744999999993</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.43370679999999978</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.43499624999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.43499624999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.43628580000000017</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.43757544999999975</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.43757544999999975</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.43886520000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.44015505000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.44144500000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.44273504999999985</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.44402519999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.44531545000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.44660579999999994</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.44789625000000011</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0.44918680000000011</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0.45047745000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0.45176820000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0.45305905000000013</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>0.45434999999999987</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>0.45564104999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>0.45693220000000012</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>0.45822344999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>0.45951479999999989</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>0.46080625000000008</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>0.46080625000000008</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>0.46209780000000011</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>0.46338945000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>0.46338945000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>0.46338945000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>0.46468119999999985</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>0.46597305000000022</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>0.46726500000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>0.46726500000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>0.46726500000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>0.46855704999999986</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>0.46855704999999986</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>0.46984920000000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Parte 2'!$A$3:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Parte 2'!$G$3:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>23.648240000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.905889999999971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.163560000000047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.421250000000015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.678959999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.93668999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.194440000000014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.194440000000014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.452210000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.710000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.967810000000014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.967810000000014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.225640000000027</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.483489999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.741359999999958</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.999249999999989</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.999249999999989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.257160000000027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.515089999999958</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.515089999999958</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.773040000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.031010000000009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.289000000000016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.547009999999972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.805039999999991</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.063090000000017</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.321159999999992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.57925000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.837360000000018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.095490000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.353640000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.61181000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.869999999999976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.128209999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.386440000000022</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31.644689999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31.902959999999979</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.161250000000024</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.161250000000024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.419560000000018</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.677890000000019</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32.677890000000019</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32.677890000000019</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32.93623999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.19461000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.453000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.453000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.453000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33.711409999999972</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33.711409999999972</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.969840000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBA2-43A5-8EF9-179268082DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1200531327"/>
+        <c:axId val="1200532575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1200531327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1200532575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1200532575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="22"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>θ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>(º)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1200531327"/>
+        <c:crossesAt val="-1000"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2824,6 +4038,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3895,20 +5149,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>286627</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>591427</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86835</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3936,15 +5706,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>399703</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>41565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11083</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3964,6 +5734,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>378719</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>34635</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1126</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A83CB02-EF21-659C-91B5-F0DE93796093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4269,53 +6075,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD29F94-593C-4FB7-9771-3260EC836248}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1200</v>
@@ -4327,8 +6139,7 @@
         <v>1199.2</v>
       </c>
       <c r="E2" s="1">
-        <f>D2*0.1</f>
-        <v>119.92000000000002</v>
+        <v>12.084</v>
       </c>
       <c r="F2" s="1">
         <f>D2</f>
@@ -4336,36 +6147,23 @@
       </c>
       <c r="G2" s="1">
         <f>E2</f>
-        <v>119.92000000000002</v>
+        <v>12.084</v>
       </c>
       <c r="H2" s="2">
         <f>G2/F2</f>
-        <v>0.1</v>
+        <v>1.0076717811874582E-2</v>
       </c>
       <c r="I2" s="2">
         <f>ABS(F2-C2)/C2</f>
         <v>5.1969823973177249E-3</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1"/>
+      <c r="J2" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>2200</v>
@@ -4377,43 +6175,31 @@
         <v>2164.3000000000002</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E6" si="0">D3*0.1</f>
-        <v>216.43000000000004</v>
+        <v>21.686</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F6" si="1">D3</f>
+        <f t="shared" ref="F3:F6" si="0">D3</f>
         <v>2164.3000000000002</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G6" si="2">E3</f>
-        <v>216.43000000000004</v>
+        <f t="shared" ref="G3:G6" si="1">E3</f>
+        <v>21.686</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H6" si="3">G3/F3</f>
-        <v>0.1</v>
+        <f t="shared" ref="H3:H6" si="2">G3/F3</f>
+        <v>1.0019867855657718E-2</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I6" si="4">ABS(F3-C3)/C3</f>
+        <f t="shared" ref="I3:I6" si="3">ABS(F3-C3)/C3</f>
         <v>2.0896226415094424E-2</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1"/>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>3300</v>
@@ -4425,36 +6211,33 @@
         <v>3289.2</v>
       </c>
       <c r="E4" s="1">
+        <v>32.984000000000002</v>
+      </c>
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>328.92</v>
-      </c>
-      <c r="F4" s="1">
+        <v>3289.2</v>
+      </c>
+      <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>3289.2</v>
-      </c>
-      <c r="G4" s="1">
+        <v>32.984000000000002</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" si="2"/>
-        <v>328.92</v>
-      </c>
-      <c r="H4" s="2">
+        <v>1.0027970327131219E-2</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="4"/>
         <v>1.518518518518513E-2</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>44</v>
+      <c r="J4" s="9">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>39</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="1">
         <v>6580</v>
       </c>
@@ -4462,36 +6245,33 @@
         <v>6653.4</v>
       </c>
       <c r="E5" s="1">
+        <v>66.037999999999997</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>665.34</v>
-      </c>
-      <c r="F5" s="1">
+        <v>6653.4</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>6653.4</v>
-      </c>
-      <c r="G5" s="1">
+        <v>66.037999999999997</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>665.34</v>
-      </c>
-      <c r="H5" s="2">
+        <v>9.9254516487810741E-3</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="4"/>
         <v>1.1155015197568334E-2</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>45</v>
+      <c r="J5" s="9">
+        <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>39</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="1">
         <v>622</v>
       </c>
@@ -4499,2457 +6279,2644 @@
         <v>624.79999999999995</v>
       </c>
       <c r="E6" s="1">
+        <v>6.2960000000000003</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>62.48</v>
-      </c>
-      <c r="F6" s="1">
+        <v>624.79999999999995</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>624.79999999999995</v>
-      </c>
-      <c r="G6" s="1">
+        <v>6.2960000000000003</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>62.48</v>
-      </c>
-      <c r="H6" s="2">
+        <v>1.0076824583866838E-2</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="4"/>
         <v>4.5016077170417276E-3</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>46</v>
+      <c r="J6" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.11811023622047244" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2744CCB0-2F7D-4947-8B22-CBAF80B9ABCC}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <f>B3*0.001</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3*1000</f>
+        <v>1092</v>
+      </c>
+      <c r="F3" s="1">
+        <f>E3-$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f>0.00001*E3^2+0.2358*E3-245.77</f>
+        <v>23.648240000000015</v>
+      </c>
+      <c r="H3" s="9">
+        <f>0.3+0.005*ABS(G3)</f>
+        <v>0.41824120000000009</v>
+      </c>
+      <c r="I3" s="8">
+        <f>(F3*$N$17)/(4*$N$18+2*F3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <f>(F3*$N$17)/(4*$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <f>F3*$S$18+$T$18</f>
+        <v>1.9621666224476156E-4</v>
+      </c>
+      <c r="L3" s="1">
+        <f>C3-K3</f>
+        <v>-1.9621666224476156E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
         <v>30</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>31</v>
+      <c r="B4" s="9">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" ref="C4:C53" si="0">B4*0.001</f>
+        <v>2.3499999999999999E-4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.093</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E53" si="1">D4*1000</f>
+        <v>1093</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F53" si="2">E4-$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <f>0.00001*E4^2+0.2358*E4-245.77</f>
+        <v>23.905889999999971</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H53" si="3">0.3+0.005*ABS(G4)</f>
+        <v>0.41952944999999986</v>
+      </c>
+      <c r="I4" s="8">
+        <f>(F4*$N$17)/(4*$N$18+2*F4)</f>
+        <v>1.060758797653959E-4</v>
+      </c>
+      <c r="J4" s="8">
+        <f>(F4*$N$17)/(4*$N$18)</f>
+        <v>1.0612450719721279E-4</v>
+      </c>
+      <c r="K4" s="8">
+        <f>F4*$S$18+$T$18</f>
+        <v>3.023803534802076E-4</v>
+      </c>
+      <c r="L4" s="1">
+        <f>C4-K4</f>
+        <v>-6.738035348020761E-5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <f>B2*0.001</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="F2" s="1">
-        <f>E2*1000</f>
-        <v>1092</v>
-      </c>
-      <c r="G2" s="1">
-        <f>F2-$F$2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>24</v>
-      </c>
-      <c r="I2" s="13">
-        <f>(G2*$P$2)/(4*$P$3+2*G2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
-        <f>(G2*$P$2)/(4*$P$3)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="13">
-        <f>G2*$O$24+$P$24</f>
-        <v>1.9621666224476156E-4</v>
-      </c>
-      <c r="L2" s="1">
-        <f>C2-K2</f>
-        <v>-1.9621666224476156E-4</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.46300000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="C3" s="13">
-        <f t="shared" ref="C3:C52" si="0">B3*0.001</f>
-        <v>2.3499999999999999E-4</v>
-      </c>
-      <c r="D3" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.093</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F52" si="1">E3*1000</f>
-        <v>1093</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G52" si="2">F3-$F$2</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>24</v>
-      </c>
-      <c r="I3" s="13">
-        <f t="shared" ref="I3:I52" si="3">(G3*$P$2)/(4*$P$3+2*G3)</f>
-        <v>1.060758797653959E-4</v>
-      </c>
-      <c r="J3" s="13">
-        <f t="shared" ref="J3:J52" si="4">(G3*$P$2)/(4*$P$3)</f>
-        <v>1.0612450719721279E-4</v>
-      </c>
-      <c r="K3" s="13">
-        <f t="shared" ref="K3:K52" si="5">G3*$O$24+$P$24</f>
-        <v>3.023803534802076E-4</v>
-      </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L52" si="6">C3-K3</f>
-        <v>-6.738035348020761E-5</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1090.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>60</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="9">
         <v>0.47499999999999998</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>4.75E-4</v>
       </c>
-      <c r="D4" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D5" s="9">
         <v>1.0940000000000001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>1094</v>
       </c>
-      <c r="G4" s="1">
+      <c r="F5" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H4" s="1">
-        <v>24</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="G5" s="7">
+        <f>0.00001*E5^2+0.2358*E5-245.77</f>
+        <v>24.163560000000047</v>
+      </c>
+      <c r="H5" s="9">
         <f t="shared" si="3"/>
+        <v>0.42081780000000024</v>
+      </c>
+      <c r="I5" s="8">
+        <f>(F5*$N$17)/(4*$N$18+2*F5)</f>
         <v>2.1205459375286251E-4</v>
       </c>
-      <c r="J4" s="13">
-        <f t="shared" si="4"/>
+      <c r="J5" s="8">
+        <f>(F5*$N$17)/(4*$N$18)</f>
         <v>2.1224901439442559E-4</v>
       </c>
-      <c r="K4" s="13">
-        <f t="shared" si="5"/>
+      <c r="K5" s="8">
+        <f>F5*$S$18+$T$18</f>
         <v>4.0854404471565365E-4</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" si="6"/>
+      <c r="L5" s="1">
+        <f>C5-K5</f>
         <v>6.645595528434635E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <v>90</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>5.6000000000000006E-4</v>
       </c>
-      <c r="D5" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D6" s="9">
         <v>1.095</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
         <v>1095</v>
       </c>
-      <c r="G5" s="1">
+      <c r="F6" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H5" s="1">
-        <v>25</v>
-      </c>
-      <c r="I5" s="13">
+      <c r="G6" s="7">
+        <f>0.00001*E6^2+0.2358*E6-245.77</f>
+        <v>24.421250000000015</v>
+      </c>
+      <c r="H6" s="9">
         <f t="shared" si="3"/>
+        <v>0.42210625000000007</v>
+      </c>
+      <c r="I6" s="8">
+        <f>(F6*$N$17)/(4*$N$18+2*F6)</f>
         <v>3.1793627540743454E-4</v>
       </c>
-      <c r="J5" s="13">
-        <f t="shared" si="4"/>
+      <c r="J6" s="8">
+        <f>(F6*$N$17)/(4*$N$18)</f>
         <v>3.1837352159163837E-4</v>
       </c>
-      <c r="K5" s="13">
-        <f>G5*$O$24+$P$24</f>
+      <c r="K6" s="8">
+        <f>F6*$S$18+$T$18</f>
         <v>5.1470773595109964E-4</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" si="6"/>
+      <c r="L6" s="1">
+        <f>C6-K6</f>
         <v>4.529226404890042E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
         <v>120</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="9">
         <v>0.64</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="D6" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D7" s="9">
         <v>1.0960000000000001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
         <v>1096</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F7" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H6" s="1">
-        <v>25</v>
-      </c>
-      <c r="I6" s="13">
+      <c r="G7" s="7">
+        <f>0.00001*E7^2+0.2358*E7-245.77</f>
+        <v>24.678959999999989</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" si="3"/>
+        <v>0.42339479999999996</v>
+      </c>
+      <c r="I7" s="8">
+        <f>(F7*$N$17)/(4*$N$18+2*F7)</f>
         <v>4.237210579298984E-4</v>
       </c>
-      <c r="J6" s="13">
-        <f t="shared" si="4"/>
+      <c r="J7" s="8">
+        <f>(F7*$N$17)/(4*$N$18)</f>
         <v>4.2449802878885117E-4</v>
       </c>
-      <c r="K6" s="13">
-        <f t="shared" si="5"/>
+      <c r="K7" s="8">
+        <f>F7*$S$18+$T$18</f>
         <v>6.2087142718654574E-4</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="6"/>
+      <c r="L7" s="1">
+        <f>C7-K7</f>
         <v>1.9128572813454313E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
         <v>150</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="9">
         <v>0.72699999999999998</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>7.27E-4</v>
       </c>
-      <c r="D7" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D8" s="9">
         <v>1.097</v>
       </c>
-      <c r="F7" s="1">
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>1097</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F8" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H7" s="1">
-        <v>25</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="G8" s="7">
+        <f>0.00001*E8^2+0.2358*E8-245.77</f>
+        <v>24.93668999999997</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" si="3"/>
+        <v>0.42468344999999985</v>
+      </c>
+      <c r="I8" s="8">
+        <f>(F8*$N$17)/(4*$N$18+2*F8)</f>
         <v>5.2940907427735087E-4</v>
       </c>
-      <c r="J7" s="13">
-        <f t="shared" si="4"/>
+      <c r="J8" s="8">
+        <f>(F8*$N$17)/(4*$N$18)</f>
         <v>5.3062253598606393E-4</v>
       </c>
-      <c r="K7" s="13">
-        <f t="shared" si="5"/>
+      <c r="K8" s="8">
+        <f>F8*$S$18+$T$18</f>
         <v>7.2703511842199184E-4</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" si="6"/>
+      <c r="L8" s="1">
+        <f>C8-K8</f>
         <v>-3.5118421991839691E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
         <v>180</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="9">
         <v>0.81</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>8.1000000000000006E-4</v>
       </c>
-      <c r="D8" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D9" s="9">
         <v>1.0980000000000001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>1098</v>
       </c>
-      <c r="G8" s="1">
+      <c r="F9" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H8" s="1">
-        <v>25</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="G9" s="7">
+        <f>0.00001*E9^2+0.2358*E9-245.77</f>
+        <v>25.194440000000014</v>
+      </c>
+      <c r="H9" s="9">
         <f t="shared" si="3"/>
+        <v>0.42597220000000002</v>
+      </c>
+      <c r="I9" s="8">
+        <f>(F9*$N$17)/(4*$N$18+2*F9)</f>
         <v>6.35000457163756E-4</v>
       </c>
-      <c r="J8" s="13">
-        <f t="shared" si="4"/>
+      <c r="J9" s="8">
+        <f>(F9*$N$17)/(4*$N$18)</f>
         <v>6.3674704318327673E-4</v>
       </c>
-      <c r="K8" s="13">
-        <f t="shared" si="5"/>
+      <c r="K9" s="8">
+        <f>F9*$S$18+$T$18</f>
         <v>8.3319880965743783E-4</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="6"/>
+      <c r="L9" s="1">
+        <f>C9-K9</f>
         <v>-2.3198809657437765E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
         <v>210</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="9">
         <v>0.89300000000000002</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>8.9300000000000002E-4</v>
       </c>
-      <c r="D9" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D10" s="9">
         <v>1.0980000000000001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>1098</v>
       </c>
-      <c r="G9" s="1">
+      <c r="F10" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H9" s="1">
-        <v>25</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="G10" s="7">
+        <f>0.00001*E10^2+0.2358*E10-245.77</f>
+        <v>25.194440000000014</v>
+      </c>
+      <c r="H10" s="9">
         <f t="shared" si="3"/>
+        <v>0.42597220000000002</v>
+      </c>
+      <c r="I10" s="8">
+        <f>(F10*$N$17)/(4*$N$18+2*F10)</f>
         <v>6.35000457163756E-4</v>
       </c>
-      <c r="J9" s="13">
-        <f t="shared" si="4"/>
+      <c r="J10" s="8">
+        <f>(F10*$N$17)/(4*$N$18)</f>
         <v>6.3674704318327673E-4</v>
       </c>
-      <c r="K9" s="13">
-        <f t="shared" si="5"/>
+      <c r="K10" s="8">
+        <f>F10*$S$18+$T$18</f>
         <v>8.3319880965743783E-4</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="6"/>
+      <c r="L10" s="1">
+        <f>C10-K10</f>
         <v>5.9801190342562193E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
         <v>240</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="9">
         <v>0.97399999999999998</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>9.7400000000000004E-4</v>
       </c>
-      <c r="D10" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D11" s="9">
         <v>1.099</v>
       </c>
-      <c r="F10" s="1">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="G10" s="1">
+      <c r="F11" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H10" s="1">
-        <v>26</v>
-      </c>
-      <c r="I10" s="13">
+      <c r="G11" s="7">
+        <f>0.00001*E11^2+0.2358*E11-245.77</f>
+        <v>25.452210000000008</v>
+      </c>
+      <c r="H11" s="9">
         <f t="shared" si="3"/>
+        <v>0.42726105000000003</v>
+      </c>
+      <c r="I11" s="8">
+        <f>(F11*$N$17)/(4*$N$18+2*F11)</f>
         <v>7.4049533906050079E-4</v>
       </c>
-      <c r="J10" s="13">
-        <f t="shared" si="4"/>
+      <c r="J11" s="8">
+        <f>(F11*$N$17)/(4*$N$18)</f>
         <v>7.4287155038048954E-4</v>
       </c>
-      <c r="K10" s="13">
-        <f t="shared" si="5"/>
+      <c r="K11" s="8">
+        <f>F11*$S$18+$T$18</f>
         <v>9.3936250089288382E-4</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="6"/>
+      <c r="L11" s="1">
+        <f>C11-K11</f>
         <v>3.4637499107116219E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
         <v>270</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="9">
         <v>1.0620000000000001</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>1.062E-3</v>
       </c>
-      <c r="D11" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D12" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F11" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="G11" s="1">
+      <c r="F12" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H11" s="1">
-        <v>26</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="G12" s="7">
+        <f>0.00001*E12^2+0.2358*E12-245.77</f>
+        <v>25.710000000000008</v>
+      </c>
+      <c r="H12" s="9">
         <f t="shared" si="3"/>
+        <v>0.42855000000000004</v>
+      </c>
+      <c r="I12" s="8">
+        <f>(F12*$N$17)/(4*$N$18+2*F12)</f>
         <v>8.4589385219694898E-4</v>
       </c>
-      <c r="J11" s="13">
-        <f t="shared" si="4"/>
+      <c r="J12" s="8">
+        <f>(F12*$N$17)/(4*$N$18)</f>
         <v>8.4899605757770235E-4</v>
       </c>
-      <c r="K11" s="13">
-        <f t="shared" si="5"/>
+      <c r="K12" s="8">
+        <f>F12*$S$18+$T$18</f>
         <v>1.0455261921283299E-3</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="6"/>
+      <c r="L12" s="1">
+        <f>C12-K12</f>
         <v>1.647380787167009E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
         <v>300</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="9">
         <v>1.1319999999999999</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C13" s="8">
         <f t="shared" si="0"/>
         <v>1.132E-3</v>
       </c>
-      <c r="D12" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D13" s="9">
         <v>1.101</v>
       </c>
-      <c r="F12" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>1101</v>
       </c>
-      <c r="G12" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H12" s="1">
-        <v>26</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="G13" s="7">
+        <f>0.00001*E13^2+0.2358*E13-245.77</f>
+        <v>25.967810000000014</v>
+      </c>
+      <c r="H13" s="9">
         <f t="shared" si="3"/>
+        <v>0.42983905000000006</v>
+      </c>
+      <c r="I13" s="8">
+        <f>(F13*$N$17)/(4*$N$18+2*F13)</f>
         <v>9.511961285609933E-4</v>
       </c>
-      <c r="J12" s="13">
-        <f t="shared" si="4"/>
+      <c r="J13" s="8">
+        <f>(F13*$N$17)/(4*$N$18)</f>
         <v>9.5512056477491515E-4</v>
       </c>
-      <c r="K12" s="13">
-        <f t="shared" si="5"/>
+      <c r="K13" s="8">
+        <f>F13*$S$18+$T$18</f>
         <v>1.151689883363776E-3</v>
       </c>
-      <c r="L12" s="1">
-        <f t="shared" si="6"/>
+      <c r="L13" s="1">
+        <f>C13-K13</f>
         <v>-1.9689883363776042E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
         <v>330</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="9">
         <v>1.2350000000000001</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C14" s="8">
         <f t="shared" si="0"/>
         <v>1.2350000000000002E-3</v>
       </c>
-      <c r="D13" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D14" s="9">
         <v>1.101</v>
       </c>
-      <c r="F13" s="1">
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
         <v>1101</v>
       </c>
-      <c r="G13" s="1">
+      <c r="F14" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H13" s="1">
-        <v>26</v>
-      </c>
-      <c r="I13" s="13">
+      <c r="G14" s="7">
+        <f>0.00001*E14^2+0.2358*E14-245.77</f>
+        <v>25.967810000000014</v>
+      </c>
+      <c r="H14" s="9">
         <f t="shared" si="3"/>
+        <v>0.42983905000000006</v>
+      </c>
+      <c r="I14" s="8">
+        <f>(F14*$N$17)/(4*$N$18+2*F14)</f>
         <v>9.511961285609933E-4</v>
       </c>
-      <c r="J13" s="13">
-        <f t="shared" si="4"/>
+      <c r="J14" s="8">
+        <f>(F14*$N$17)/(4*$N$18)</f>
         <v>9.5512056477491515E-4</v>
       </c>
-      <c r="K13" s="13">
-        <f t="shared" si="5"/>
+      <c r="K14" s="8">
+        <f>F14*$S$18+$T$18</f>
         <v>1.151689883363776E-3</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="6"/>
+      <c r="L14" s="1">
+        <f>C14-K14</f>
         <v>8.3310116636224184E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
         <v>360</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="9">
         <v>1.3</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C15" s="8">
         <f t="shared" si="0"/>
         <v>1.3000000000000002E-3</v>
       </c>
-      <c r="D14" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D15" s="9">
         <v>1.1020000000000001</v>
       </c>
-      <c r="F14" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
         <v>1102</v>
       </c>
-      <c r="G14" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H14" s="1">
-        <v>26</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="G15" s="7">
+        <f>0.00001*E15^2+0.2358*E15-245.77</f>
+        <v>26.225640000000027</v>
+      </c>
+      <c r="H15" s="9">
         <f t="shared" si="3"/>
+        <v>0.43112820000000013</v>
+      </c>
+      <c r="I15" s="8">
+        <f>(F15*$N$17)/(4*$N$18+2*F15)</f>
         <v>1.0564022998996074E-3</v>
       </c>
-      <c r="J14" s="13">
-        <f t="shared" si="4"/>
+      <c r="J15" s="8">
+        <f>(F15*$N$17)/(4*$N$18)</f>
         <v>1.0612450719721279E-3</v>
       </c>
-      <c r="K14" s="13">
-        <f t="shared" si="5"/>
+      <c r="K15" s="8">
+        <f>F15*$S$18+$T$18</f>
         <v>1.2578535745992221E-3</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" si="6"/>
+      <c r="L15" s="1">
+        <f>C15-K15</f>
         <v>4.2146425400778039E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
         <v>390</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="9">
         <v>1.379</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C16" s="8">
         <f t="shared" si="0"/>
         <v>1.379E-3</v>
       </c>
-      <c r="D15" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D16" s="9">
         <v>1.103</v>
       </c>
-      <c r="F15" s="1">
+      <c r="E16" s="1">
         <f t="shared" si="1"/>
         <v>1103</v>
       </c>
-      <c r="G15" s="1">
+      <c r="F16" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H15" s="1">
-        <v>27</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="G16" s="7">
+        <f>0.00001*E16^2+0.2358*E16-245.77</f>
+        <v>26.483489999999989</v>
+      </c>
+      <c r="H16" s="9">
         <f t="shared" si="3"/>
+        <v>0.43241744999999993</v>
+      </c>
+      <c r="I16" s="8">
+        <f>(F16*$N$17)/(4*$N$18+2*F16)</f>
         <v>1.1615124977193943E-3</v>
       </c>
-      <c r="J15" s="13">
-        <f t="shared" si="4"/>
+      <c r="J16" s="8">
+        <f>(F16*$N$17)/(4*$N$18)</f>
         <v>1.1673695791693407E-3</v>
       </c>
-      <c r="K15" s="13">
-        <f t="shared" si="5"/>
+      <c r="K16" s="8">
+        <f>F16*$S$18+$T$18</f>
         <v>1.364017265834668E-3</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="6"/>
+      <c r="L16" s="1">
+        <f>C16-K16</f>
         <v>1.4982734165332016E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="17" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="20">
         <v>420</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="9">
         <v>1.46</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C17" s="8">
         <f t="shared" si="0"/>
         <v>1.4599999999999999E-3</v>
       </c>
-      <c r="D16" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D17" s="9">
         <v>1.1040000000000001</v>
       </c>
-      <c r="F16" s="1">
+      <c r="E17" s="1">
         <f t="shared" si="1"/>
         <v>1104</v>
       </c>
-      <c r="G16" s="1">
+      <c r="F17" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H16" s="1">
-        <v>27</v>
-      </c>
-      <c r="I16" s="13">
+      <c r="G17" s="7">
+        <f>0.00001*E17^2+0.2358*E17-245.77</f>
+        <v>26.741359999999958</v>
+      </c>
+      <c r="H17" s="9">
         <f t="shared" si="3"/>
+        <v>0.43370679999999978</v>
+      </c>
+      <c r="I17" s="8">
+        <f>(F17*$N$17)/(4*$N$18+2*F17)</f>
         <v>1.2665268532871341E-3</v>
       </c>
-      <c r="J16" s="13">
-        <f t="shared" si="4"/>
+      <c r="J17" s="8">
+        <f>(F17*$N$17)/(4*$N$18)</f>
         <v>1.2734940863665535E-3</v>
       </c>
-      <c r="K16" s="13">
-        <f t="shared" si="5"/>
+      <c r="K17" s="8">
+        <f>F17*$S$18+$T$18</f>
         <v>1.4701809570701141E-3</v>
       </c>
-      <c r="L16" s="1">
-        <f t="shared" si="6"/>
+      <c r="L17" s="1">
+        <f>C17-K17</f>
         <v>-1.0180957070114174E-5</v>
       </c>
+      <c r="M17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
         <v>450</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="9">
         <v>1.5369999999999999</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C18" s="8">
         <f t="shared" si="0"/>
         <v>1.537E-3</v>
       </c>
-      <c r="D17" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D18" s="9">
         <v>1.105</v>
       </c>
-      <c r="F17" s="1">
+      <c r="E18" s="1">
         <f t="shared" si="1"/>
         <v>1105</v>
       </c>
-      <c r="G17" s="1">
+      <c r="F18" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H17" s="1">
-        <v>27</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="G18" s="7">
+        <f>0.00001*E18^2+0.2358*E18-245.77</f>
+        <v>26.999249999999989</v>
+      </c>
+      <c r="H18" s="9">
         <f t="shared" si="3"/>
+        <v>0.43499624999999997</v>
+      </c>
+      <c r="I18" s="8">
+        <f>(F18*$N$17)/(4*$N$18+2*F18)</f>
         <v>1.3714454976303317E-3</v>
       </c>
-      <c r="J17" s="13">
-        <f t="shared" si="4"/>
+      <c r="J18" s="8">
+        <f>(F18*$N$17)/(4*$N$18)</f>
         <v>1.3796185935637663E-3</v>
       </c>
-      <c r="K17" s="13">
-        <f t="shared" si="5"/>
+      <c r="K18" s="8">
+        <f>F18*$S$18+$T$18</f>
         <v>1.5763446483055602E-3</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="6"/>
+      <c r="L18" s="1">
+        <f>C18-K18</f>
         <v>-3.9344648305560245E-5</v>
       </c>
+      <c r="M18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1090.7</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="1">
+        <v>10.914</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="array" ref="S18:T20">LINEST(C3:C53,F3:F53,1,1)</f>
+        <v>1.0616369123544605E-4</v>
+      </c>
+      <c r="T18" s="5">
+        <v>1.9621666224476156E-4</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" s="15"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
         <v>480</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="9">
         <v>1.61</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C19" s="8">
         <f t="shared" si="0"/>
         <v>1.6100000000000001E-3</v>
       </c>
-      <c r="D18" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D19" s="9">
         <v>1.105</v>
       </c>
-      <c r="F18" s="1">
+      <c r="E19" s="1">
         <f t="shared" si="1"/>
         <v>1105</v>
       </c>
-      <c r="G18" s="1">
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H18" s="1">
-        <v>27</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="G19" s="7">
+        <f>0.00001*E19^2+0.2358*E19-245.77</f>
+        <v>26.999249999999989</v>
+      </c>
+      <c r="H19" s="9">
         <f t="shared" si="3"/>
+        <v>0.43499624999999997</v>
+      </c>
+      <c r="I19" s="8">
+        <f>(F19*$N$17)/(4*$N$18+2*F19)</f>
         <v>1.3714454976303317E-3</v>
       </c>
-      <c r="J18" s="13">
-        <f t="shared" si="4"/>
+      <c r="J19" s="8">
+        <f>(F19*$N$17)/(4*$N$18)</f>
         <v>1.3796185935637663E-3</v>
       </c>
-      <c r="K18" s="13">
-        <f t="shared" si="5"/>
+      <c r="K19" s="8">
+        <f>F19*$S$18+$T$18</f>
         <v>1.5763446483055602E-3</v>
       </c>
-      <c r="L18" s="1">
-        <f t="shared" si="6"/>
+      <c r="L19" s="1">
+        <f>C19-K19</f>
         <v>3.3655351694439903E-5</v>
       </c>
+      <c r="R19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="5">
+        <v>5.6682004914176071E-7</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1.3883972095916352E-5</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" s="13"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
         <v>510</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="9">
         <v>1.6919999999999999</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>1.6919999999999999E-3</v>
       </c>
-      <c r="D19" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D20" s="9">
         <v>1.1060000000000001</v>
       </c>
-      <c r="F19" s="1">
+      <c r="E20" s="1">
         <f t="shared" si="1"/>
         <v>1106</v>
       </c>
-      <c r="G19" s="1">
+      <c r="F20" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H19" s="1">
-        <v>27</v>
-      </c>
-      <c r="I19" s="13">
+      <c r="G20" s="7">
+        <f>0.00001*E20^2+0.2358*E20-245.77</f>
+        <v>27.257160000000027</v>
+      </c>
+      <c r="H20" s="9">
         <f t="shared" si="3"/>
+        <v>0.43628580000000017</v>
+      </c>
+      <c r="I20" s="8">
+        <f>(F20*$N$17)/(4*$N$18+2*F20)</f>
         <v>1.4762685615377607E-3</v>
       </c>
-      <c r="J19" s="13">
-        <f t="shared" si="4"/>
+      <c r="J20" s="8">
+        <f>(F20*$N$17)/(4*$N$18)</f>
         <v>1.4857431007609791E-3</v>
       </c>
-      <c r="K19" s="13">
-        <f t="shared" si="5"/>
+      <c r="K20" s="8">
+        <f>F20*$S$18+$T$18</f>
         <v>1.6825083395410061E-3</v>
       </c>
-      <c r="L19" s="1">
-        <f t="shared" si="6"/>
+      <c r="L20" s="1">
+        <f>C20-K20</f>
         <v>9.4916604589938454E-6</v>
       </c>
+      <c r="R20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.99860514755907359</v>
+      </c>
+      <c r="T20" s="5">
+        <v>4.9693147055673696E-5</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V20" s="13"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
         <v>540</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="9">
         <v>1.67</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C21" s="8">
         <f t="shared" si="0"/>
         <v>1.67E-3</v>
       </c>
-      <c r="D20" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D21" s="9">
         <v>1.107</v>
       </c>
-      <c r="F20" s="1">
+      <c r="E21" s="1">
         <f t="shared" si="1"/>
         <v>1107</v>
       </c>
-      <c r="G20" s="1">
+      <c r="F21" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H20" s="1">
-        <v>28</v>
-      </c>
-      <c r="I20" s="13">
+      <c r="G21" s="7">
+        <f>0.00001*E21^2+0.2358*E21-245.77</f>
+        <v>27.515089999999958</v>
+      </c>
+      <c r="H21" s="9">
         <f t="shared" si="3"/>
+        <v>0.43757544999999975</v>
+      </c>
+      <c r="I21" s="8">
+        <f>(F21*$N$17)/(4*$N$18+2*F21)</f>
         <v>1.5809961755600074E-3</v>
       </c>
-      <c r="J20" s="13">
-        <f t="shared" si="4"/>
+      <c r="J21" s="8">
+        <f>(F21*$N$17)/(4*$N$18)</f>
         <v>1.5918676079581919E-3</v>
       </c>
-      <c r="K20" s="13">
-        <f t="shared" si="5"/>
+      <c r="K21" s="8">
+        <f>F21*$S$18+$T$18</f>
         <v>1.7886720307764522E-3</v>
       </c>
-      <c r="L20" s="1">
-        <f t="shared" si="6"/>
+      <c r="L21" s="1">
+        <f>C21-K21</f>
         <v>-1.1867203077645214E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
         <v>570</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="9">
         <v>1.843</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C22" s="8">
         <f t="shared" si="0"/>
         <v>1.843E-3</v>
       </c>
-      <c r="D21" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D22" s="9">
         <v>1.107</v>
       </c>
-      <c r="F21" s="1">
+      <c r="E22" s="1">
         <f t="shared" si="1"/>
         <v>1107</v>
       </c>
-      <c r="G21" s="1">
+      <c r="F22" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H21" s="1">
-        <v>28</v>
-      </c>
-      <c r="I21" s="13">
+      <c r="G22" s="7">
+        <f>0.00001*E22^2+0.2358*E22-245.77</f>
+        <v>27.515089999999958</v>
+      </c>
+      <c r="H22" s="9">
         <f t="shared" si="3"/>
+        <v>0.43757544999999975</v>
+      </c>
+      <c r="I22" s="8">
+        <f>(F22*$N$17)/(4*$N$18+2*F22)</f>
         <v>1.5809961755600074E-3</v>
       </c>
-      <c r="J21" s="13">
-        <f t="shared" si="4"/>
+      <c r="J22" s="8">
+        <f>(F22*$N$17)/(4*$N$18)</f>
         <v>1.5918676079581919E-3</v>
       </c>
-      <c r="K21" s="13">
-        <f t="shared" si="5"/>
+      <c r="K22" s="8">
+        <f>F22*$S$18+$T$18</f>
         <v>1.7886720307764522E-3</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="6"/>
+      <c r="L22" s="1">
+        <f>C22-K22</f>
         <v>5.4327969223547838E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
         <v>600</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="9">
         <v>1.925</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C23" s="8">
         <f t="shared" si="0"/>
         <v>1.9250000000000001E-3</v>
       </c>
-      <c r="D22" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D23" s="9">
         <v>1.1080000000000001</v>
       </c>
-      <c r="F22" s="1">
+      <c r="E23" s="1">
         <f t="shared" si="1"/>
         <v>1108</v>
       </c>
-      <c r="G22" s="1">
+      <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H22" s="1">
-        <v>28</v>
-      </c>
-      <c r="I22" s="13">
+      <c r="G23" s="7">
+        <f>0.00001*E23^2+0.2358*E23-245.77</f>
+        <v>27.773040000000009</v>
+      </c>
+      <c r="H23" s="9">
         <f t="shared" si="3"/>
+        <v>0.43886520000000007</v>
+      </c>
+      <c r="I23" s="8">
+        <f>(F23*$N$17)/(4*$N$18+2*F23)</f>
         <v>1.6856284700100118E-3</v>
       </c>
-      <c r="J22" s="13">
-        <f t="shared" si="4"/>
+      <c r="J23" s="8">
+        <f>(F23*$N$17)/(4*$N$18)</f>
         <v>1.6979921151554047E-3</v>
       </c>
-      <c r="K22" s="13">
-        <f t="shared" si="5"/>
+      <c r="K23" s="8">
+        <f>F23*$S$18+$T$18</f>
         <v>1.8948357220118983E-3</v>
       </c>
-      <c r="L22" s="1">
-        <f t="shared" si="6"/>
+      <c r="L23" s="1">
+        <f>C23-K23</f>
         <v>3.0164277988101781E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
         <v>630</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="9">
         <v>2</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C24" s="8">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="D23" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D24" s="9">
         <v>1.109</v>
       </c>
-      <c r="F23" s="1">
+      <c r="E24" s="1">
         <f t="shared" si="1"/>
         <v>1109</v>
       </c>
-      <c r="G23" s="1">
+      <c r="F24" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="H23" s="1">
-        <v>28</v>
-      </c>
-      <c r="I23" s="13">
+      <c r="G24" s="7">
+        <f>0.00001*E24^2+0.2358*E24-245.77</f>
+        <v>28.031010000000009</v>
+      </c>
+      <c r="H24" s="9">
         <f t="shared" si="3"/>
+        <v>0.44015505000000005</v>
+      </c>
+      <c r="I24" s="8">
+        <f>(F24*$N$17)/(4*$N$18+2*F24)</f>
         <v>1.79016557496361E-3</v>
       </c>
-      <c r="J23" s="13">
-        <f t="shared" si="4"/>
+      <c r="J24" s="8">
+        <f>(F24*$N$17)/(4*$N$18)</f>
         <v>1.8041166223526177E-3</v>
       </c>
-      <c r="K23" s="13">
-        <f t="shared" si="5"/>
+      <c r="K24" s="8">
+        <f>F24*$S$18+$T$18</f>
         <v>2.0009994132473442E-3</v>
       </c>
-      <c r="L23" s="1">
-        <f t="shared" si="6"/>
+      <c r="L24" s="1">
+        <f>C24-K24</f>
         <v>-9.9941324734412196E-7</v>
       </c>
-      <c r="N23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
         <v>660</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="9">
         <v>2.0720000000000001</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C25" s="8">
         <f t="shared" si="0"/>
         <v>2.0720000000000001E-3</v>
       </c>
-      <c r="D24" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="D25" s="9">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F24" s="1">
+      <c r="E25" s="1">
         <f t="shared" si="1"/>
         <v>1110</v>
       </c>
-      <c r="G24" s="1">
+      <c r="F25" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="H24" s="1">
-        <v>28</v>
-      </c>
-      <c r="I24" s="13">
+      <c r="G25" s="7">
+        <f>0.00001*E25^2+0.2358*E25-245.77</f>
+        <v>28.289000000000016</v>
+      </c>
+      <c r="H25" s="9">
         <f t="shared" si="3"/>
+        <v>0.44144500000000009</v>
+      </c>
+      <c r="I25" s="8">
+        <f>(F25*$N$17)/(4*$N$18+2*F25)</f>
         <v>1.8946076202600707E-3</v>
       </c>
-      <c r="J24" s="13">
-        <f t="shared" si="4"/>
+      <c r="J25" s="8">
+        <f>(F25*$N$17)/(4*$N$18)</f>
         <v>1.9102411295498303E-3</v>
       </c>
-      <c r="K24" s="13">
-        <f t="shared" si="5"/>
+      <c r="K25" s="8">
+        <f>F25*$S$18+$T$18</f>
         <v>2.1071631044827905E-3</v>
       </c>
-      <c r="L24" s="1">
-        <f t="shared" si="6"/>
+      <c r="L25" s="1">
+        <f>C25-K25</f>
         <v>-3.5163104482790423E-5</v>
       </c>
-      <c r="N24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="5">
-        <f t="array" ref="O24:P26">LINEST(C2:C52,G2:G52,1,1)</f>
-        <v>1.0616369123544605E-4</v>
-      </c>
-      <c r="P24" s="5">
-        <v>1.9621666224476156E-4</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
         <v>690</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="9">
         <v>2.1760000000000002</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C26" s="8">
         <f t="shared" si="0"/>
         <v>2.1760000000000004E-3</v>
       </c>
-      <c r="D25" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D26" s="9">
         <v>1.111</v>
       </c>
-      <c r="F25" s="1">
+      <c r="E26" s="1">
         <f t="shared" si="1"/>
         <v>1111</v>
       </c>
-      <c r="G25" s="1">
+      <c r="F26" s="1">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="H25" s="1">
-        <v>29</v>
-      </c>
-      <c r="I25" s="13">
+      <c r="G26" s="7">
+        <f>0.00001*E26^2+0.2358*E26-245.77</f>
+        <v>28.547009999999972</v>
+      </c>
+      <c r="H26" s="9">
         <f t="shared" si="3"/>
+        <v>0.44273504999999985</v>
+      </c>
+      <c r="I26" s="8">
+        <f>(F26*$N$17)/(4*$N$18+2*F26)</f>
         <v>1.9989547355026361E-3</v>
       </c>
-      <c r="J25" s="13">
-        <f t="shared" si="4"/>
+      <c r="J26" s="8">
+        <f>(F26*$N$17)/(4*$N$18)</f>
         <v>2.0163656367470431E-3</v>
       </c>
-      <c r="K25" s="13">
-        <f t="shared" si="5"/>
+      <c r="K26" s="8">
+        <f>F26*$S$18+$T$18</f>
         <v>2.2133267957182364E-3</v>
       </c>
-      <c r="L25" s="1">
-        <f t="shared" si="6"/>
+      <c r="L26" s="1">
+        <f>C26-K26</f>
         <v>-3.7326795718235946E-5</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="5">
-        <v>5.6682004914176071E-7</v>
-      </c>
-      <c r="P25" s="5">
-        <v>1.3883972095916352E-5</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R25" s="10"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
         <v>720</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="9">
         <v>2.3039999999999998</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C27" s="8">
         <f t="shared" si="0"/>
         <v>2.3040000000000001E-3</v>
       </c>
-      <c r="D26" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D27" s="9">
         <v>1.1120000000000001</v>
       </c>
-      <c r="F26" s="1">
+      <c r="E27" s="1">
         <f t="shared" si="1"/>
         <v>1112</v>
       </c>
-      <c r="G26" s="1">
+      <c r="F27" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H26" s="1">
-        <v>29</v>
-      </c>
-      <c r="I26" s="13">
+      <c r="G27" s="7">
+        <f>0.00001*E27^2+0.2358*E27-245.77</f>
+        <v>28.805039999999991</v>
+      </c>
+      <c r="H27" s="9">
         <f t="shared" si="3"/>
+        <v>0.44402519999999995</v>
+      </c>
+      <c r="I27" s="8">
+        <f>(F27*$N$17)/(4*$N$18+2*F27)</f>
         <v>2.103207050059053E-3</v>
       </c>
-      <c r="J26" s="13">
-        <f t="shared" si="4"/>
+      <c r="J27" s="8">
+        <f>(F27*$N$17)/(4*$N$18)</f>
         <v>2.1224901439442557E-3</v>
       </c>
-      <c r="K26" s="13">
-        <f t="shared" si="5"/>
+      <c r="K27" s="8">
+        <f>F27*$S$18+$T$18</f>
         <v>2.3194904869536827E-3</v>
       </c>
-      <c r="L26" s="1">
-        <f t="shared" si="6"/>
+      <c r="L27" s="1">
+        <f>C27-K27</f>
         <v>-1.549048695368262E-5</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O26" s="5">
-        <v>0.99860514755907359</v>
-      </c>
-      <c r="P26" s="5">
-        <v>4.9693147055673696E-5</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="20">
         <v>750</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="9">
         <v>2.4319999999999999</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C28" s="8">
         <f t="shared" si="0"/>
         <v>2.4320000000000001E-3</v>
       </c>
-      <c r="D27" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D28" s="9">
         <v>1.113</v>
       </c>
-      <c r="F27" s="1">
+      <c r="E28" s="1">
         <f t="shared" si="1"/>
         <v>1113</v>
       </c>
-      <c r="G27" s="1">
+      <c r="F28" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="H27" s="1">
-        <v>29</v>
-      </c>
-      <c r="I27" s="13">
+      <c r="G28" s="7">
+        <f>0.00001*E28^2+0.2358*E28-245.77</f>
+        <v>29.063090000000017</v>
+      </c>
+      <c r="H28" s="9">
         <f t="shared" si="3"/>
+        <v>0.44531545000000006</v>
+      </c>
+      <c r="I28" s="8">
+        <f>(F28*$N$17)/(4*$N$18+2*F28)</f>
         <v>2.2073646930621141E-3</v>
       </c>
-      <c r="J27" s="13">
-        <f t="shared" si="4"/>
+      <c r="J28" s="8">
+        <f>(F28*$N$17)/(4*$N$18)</f>
         <v>2.2286146511414687E-3</v>
       </c>
-      <c r="K27" s="13">
-        <f t="shared" si="5"/>
+      <c r="K28" s="8">
+        <f>F28*$S$18+$T$18</f>
         <v>2.4256541781891286E-3</v>
       </c>
-      <c r="L27" s="1">
-        <f t="shared" si="6"/>
+      <c r="L28" s="1">
+        <f>C28-K28</f>
         <v>6.3458218108715728E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
         <v>780</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="9">
         <v>2.5249999999999999</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C29" s="8">
         <f t="shared" si="0"/>
         <v>2.5249999999999999E-3</v>
       </c>
-      <c r="D28" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D29" s="9">
         <v>1.1140000000000001</v>
       </c>
-      <c r="F28" s="1">
+      <c r="E29" s="1">
         <f t="shared" si="1"/>
         <v>1114</v>
       </c>
-      <c r="G28" s="1">
+      <c r="F29" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H28" s="1">
-        <v>29</v>
-      </c>
-      <c r="I28" s="13">
+      <c r="G29" s="7">
+        <f>0.00001*E29^2+0.2358*E29-245.77</f>
+        <v>29.321159999999992</v>
+      </c>
+      <c r="H29" s="9">
         <f t="shared" si="3"/>
+        <v>0.44660579999999994</v>
+      </c>
+      <c r="I29" s="8">
+        <f>(F29*$N$17)/(4*$N$18+2*F29)</f>
         <v>2.3114277934101844E-3</v>
       </c>
-      <c r="J28" s="13">
-        <f t="shared" si="4"/>
+      <c r="J29" s="8">
+        <f>(F29*$N$17)/(4*$N$18)</f>
         <v>2.3347391583386813E-3</v>
       </c>
-      <c r="K28" s="13">
-        <f t="shared" si="5"/>
+      <c r="K29" s="8">
+        <f>F29*$S$18+$T$18</f>
         <v>2.5318178694245744E-3</v>
       </c>
-      <c r="L28" s="1">
-        <f t="shared" si="6"/>
+      <c r="L29" s="1">
+        <f>C29-K29</f>
         <v>-6.8178694245745429E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
         <v>810</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="9">
         <v>2.63</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C30" s="8">
         <f t="shared" si="0"/>
         <v>2.63E-3</v>
       </c>
-      <c r="D29" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D30" s="9">
         <v>1.115</v>
       </c>
-      <c r="F29" s="1">
+      <c r="E30" s="1">
         <f t="shared" si="1"/>
         <v>1115</v>
       </c>
-      <c r="G29" s="1">
+      <c r="F30" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="H29" s="1">
-        <v>30</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="G30" s="7">
+        <f>0.00001*E30^2+0.2358*E30-245.77</f>
+        <v>29.57925000000003</v>
+      </c>
+      <c r="H30" s="9">
         <f t="shared" si="3"/>
+        <v>0.44789625000000011</v>
+      </c>
+      <c r="I30" s="8">
+        <f>(F30*$N$17)/(4*$N$18+2*F30)</f>
         <v>2.4153964797677375E-3</v>
       </c>
-      <c r="J29" s="13">
-        <f t="shared" si="4"/>
+      <c r="J30" s="8">
+        <f>(F30*$N$17)/(4*$N$18)</f>
         <v>2.4408636655358943E-3</v>
       </c>
-      <c r="K29" s="13">
-        <f t="shared" si="5"/>
+      <c r="K30" s="8">
+        <f>F30*$S$18+$T$18</f>
         <v>2.6379815606600208E-3</v>
       </c>
-      <c r="L29" s="1">
-        <f t="shared" si="6"/>
+      <c r="L30" s="1">
+        <f>C30-K30</f>
         <v>-7.9815606600208006E-6</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
         <v>840</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="9">
         <v>2.7919999999999998</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C31" s="8">
         <f t="shared" si="0"/>
         <v>2.7919999999999998E-3</v>
       </c>
-      <c r="D30" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D31" s="9">
         <v>1.1160000000000001</v>
       </c>
-      <c r="F30" s="1">
+      <c r="E31" s="1">
         <f t="shared" si="1"/>
         <v>1116</v>
       </c>
-      <c r="G30" s="1">
+      <c r="F31" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H30" s="1">
-        <v>30</v>
-      </c>
-      <c r="I30" s="13">
+      <c r="G31" s="7">
+        <f>0.00001*E31^2+0.2358*E31-245.77</f>
+        <v>29.837360000000018</v>
+      </c>
+      <c r="H31" s="9">
         <f t="shared" si="3"/>
+        <v>0.44918680000000011</v>
+      </c>
+      <c r="I31" s="8">
+        <f>(F31*$N$17)/(4*$N$18+2*F31)</f>
         <v>2.5192708805658838E-3</v>
       </c>
-      <c r="J30" s="13">
-        <f t="shared" si="4"/>
+      <c r="J31" s="8">
+        <f>(F31*$N$17)/(4*$N$18)</f>
         <v>2.5469881727331069E-3</v>
       </c>
-      <c r="K30" s="13">
-        <f t="shared" si="5"/>
+      <c r="K31" s="8">
+        <f>F31*$S$18+$T$18</f>
         <v>2.7441452518954666E-3</v>
       </c>
-      <c r="L30" s="1">
-        <f t="shared" si="6"/>
+      <c r="L31" s="1">
+        <f>C31-K31</f>
         <v>4.7854748104533135E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
         <v>870</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="9">
         <v>2.89</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C32" s="8">
         <f t="shared" si="0"/>
         <v>2.8900000000000002E-3</v>
       </c>
-      <c r="D31" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D32" s="9">
         <v>1.117</v>
       </c>
-      <c r="F31" s="1">
+      <c r="E32" s="1">
         <f t="shared" si="1"/>
         <v>1117</v>
       </c>
-      <c r="G31" s="1">
+      <c r="F32" s="1">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H31" s="1">
-        <v>30</v>
-      </c>
-      <c r="I31" s="13">
+      <c r="G32" s="7">
+        <f>0.00001*E32^2+0.2358*E32-245.77</f>
+        <v>30.095490000000012</v>
+      </c>
+      <c r="H32" s="9">
         <f t="shared" si="3"/>
+        <v>0.45047745000000006</v>
+      </c>
+      <c r="I32" s="8">
+        <f>(F32*$N$17)/(4*$N$18+2*F32)</f>
         <v>2.6230511240029008E-3</v>
       </c>
-      <c r="J31" s="13">
-        <f t="shared" si="4"/>
+      <c r="J32" s="8">
+        <f>(F32*$N$17)/(4*$N$18)</f>
         <v>2.65311267993032E-3</v>
       </c>
-      <c r="K31" s="13">
-        <f t="shared" si="5"/>
+      <c r="K32" s="8">
+        <f>F32*$S$18+$T$18</f>
         <v>2.8503089431309125E-3</v>
       </c>
-      <c r="L31" s="1">
-        <f t="shared" si="6"/>
+      <c r="L32" s="1">
+        <f>C32-K32</f>
         <v>3.9691056869087683E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="20">
         <v>900</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="9">
         <v>2.9980000000000002</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C33" s="8">
         <f t="shared" si="0"/>
         <v>2.9980000000000002E-3</v>
       </c>
-      <c r="D32" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D33" s="9">
         <v>1.1180000000000001</v>
       </c>
-      <c r="F32" s="1">
+      <c r="E33" s="1">
         <f t="shared" si="1"/>
         <v>1118</v>
       </c>
-      <c r="G32" s="1">
+      <c r="F33" s="1">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="H32" s="1">
-        <v>30</v>
-      </c>
-      <c r="I32" s="13">
+      <c r="G33" s="7">
+        <f>0.00001*E33^2+0.2358*E33-245.77</f>
+        <v>30.353640000000013</v>
+      </c>
+      <c r="H33" s="9">
         <f t="shared" si="3"/>
+        <v>0.45176820000000006</v>
+      </c>
+      <c r="I33" s="8">
+        <f>(F33*$N$17)/(4*$N$18+2*F33)</f>
         <v>2.7267373380447583E-3</v>
       </c>
-      <c r="J32" s="13">
-        <f t="shared" si="4"/>
+      <c r="J33" s="8">
+        <f>(F33*$N$17)/(4*$N$18)</f>
         <v>2.7592371871275325E-3</v>
       </c>
-      <c r="K32" s="13">
-        <f t="shared" si="5"/>
+      <c r="K33" s="8">
+        <f>F33*$S$18+$T$18</f>
         <v>2.9564726343663588E-3</v>
       </c>
-      <c r="L32" s="1">
-        <f t="shared" si="6"/>
+      <c r="L33" s="1">
+        <f>C33-K33</f>
         <v>4.1527365633641389E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="20">
         <v>930</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="9">
         <v>3.1</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C34" s="8">
         <f t="shared" si="0"/>
         <v>3.1000000000000003E-3</v>
       </c>
-      <c r="D33" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D34" s="9">
         <v>1.119</v>
       </c>
-      <c r="F33" s="1">
+      <c r="E34" s="1">
         <f t="shared" si="1"/>
         <v>1119</v>
       </c>
-      <c r="G33" s="1">
+      <c r="F34" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="H33" s="1">
-        <v>31</v>
-      </c>
-      <c r="I33" s="13">
+      <c r="G34" s="7">
+        <f>0.00001*E34^2+0.2358*E34-245.77</f>
+        <v>30.61181000000002</v>
+      </c>
+      <c r="H34" s="9">
         <f t="shared" si="3"/>
+        <v>0.45305905000000013</v>
+      </c>
+      <c r="I34" s="8">
+        <f>(F34*$N$17)/(4*$N$18+2*F34)</f>
         <v>2.8303296504256477E-3</v>
       </c>
-      <c r="J33" s="13">
-        <f t="shared" si="4"/>
+      <c r="J34" s="8">
+        <f>(F34*$N$17)/(4*$N$18)</f>
         <v>2.8653616943247456E-3</v>
       </c>
-      <c r="K33" s="13">
-        <f t="shared" si="5"/>
+      <c r="K34" s="8">
+        <f>F34*$S$18+$T$18</f>
         <v>3.0626363256018047E-3</v>
       </c>
-      <c r="L33" s="1">
-        <f t="shared" si="6"/>
+      <c r="L34" s="1">
+        <f>C34-K34</f>
         <v>3.7363674398195601E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="20">
         <v>960</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="9">
         <v>3.1930000000000001</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C35" s="8">
         <f t="shared" si="0"/>
         <v>3.1930000000000001E-3</v>
       </c>
-      <c r="D34" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D35" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F34" s="1">
+      <c r="E35" s="1">
         <f t="shared" si="1"/>
         <v>1120</v>
       </c>
-      <c r="G34" s="1">
+      <c r="F35" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H34" s="1">
-        <v>31</v>
-      </c>
-      <c r="I34" s="13">
+      <c r="G35" s="7">
+        <f>0.00001*E35^2+0.2358*E35-245.77</f>
+        <v>30.869999999999976</v>
+      </c>
+      <c r="H35" s="9">
         <f t="shared" si="3"/>
+        <v>0.45434999999999987</v>
+      </c>
+      <c r="I35" s="8">
+        <f>(F35*$N$17)/(4*$N$18+2*F35)</f>
         <v>2.9338281886485016E-3</v>
       </c>
-      <c r="J34" s="13">
-        <f t="shared" si="4"/>
+      <c r="J35" s="8">
+        <f>(F35*$N$17)/(4*$N$18)</f>
         <v>2.9714862015219582E-3</v>
       </c>
-      <c r="K34" s="13">
-        <f t="shared" si="5"/>
+      <c r="K35" s="8">
+        <f>F35*$S$18+$T$18</f>
         <v>3.1688000168372506E-3</v>
       </c>
-      <c r="L34" s="1">
-        <f t="shared" si="6"/>
+      <c r="L35" s="1">
+        <f>C35-K35</f>
         <v>2.4199983162749485E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="20">
         <v>990</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="9">
         <v>3.28</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C36" s="8">
         <f t="shared" si="0"/>
         <v>3.2799999999999999E-3</v>
       </c>
-      <c r="D35" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D36" s="9">
         <v>1.121</v>
       </c>
-      <c r="F35" s="1">
+      <c r="E36" s="1">
         <f t="shared" si="1"/>
         <v>1121</v>
       </c>
-      <c r="G35" s="1">
+      <c r="F36" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="H35" s="1">
-        <v>31</v>
-      </c>
-      <c r="I35" s="13">
+      <c r="G36" s="7">
+        <f>0.00001*E36^2+0.2358*E36-245.77</f>
+        <v>31.128209999999996</v>
+      </c>
+      <c r="H36" s="9">
         <f t="shared" si="3"/>
+        <v>0.45564104999999999</v>
+      </c>
+      <c r="I36" s="8">
+        <f>(F36*$N$17)/(4*$N$18+2*F36)</f>
         <v>3.0372330799855233E-3</v>
       </c>
-      <c r="J35" s="13">
-        <f t="shared" si="4"/>
+      <c r="J36" s="8">
+        <f>(F36*$N$17)/(4*$N$18)</f>
         <v>3.0776107087191712E-3</v>
       </c>
-      <c r="K35" s="13">
-        <f t="shared" si="5"/>
+      <c r="K36" s="8">
+        <f>F36*$S$18+$T$18</f>
         <v>3.2749637080726969E-3</v>
       </c>
-      <c r="L35" s="1">
-        <f t="shared" si="6"/>
+      <c r="L36" s="1">
+        <f>C36-K36</f>
         <v>5.036291927303007E-6</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="20">
         <v>1020</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="9">
         <v>3.387</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C37" s="8">
         <f t="shared" si="0"/>
         <v>3.3870000000000003E-3</v>
       </c>
-      <c r="D36" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D37" s="9">
         <v>1.1220000000000001</v>
       </c>
-      <c r="F36" s="1">
+      <c r="E37" s="1">
         <f t="shared" si="1"/>
         <v>1122</v>
       </c>
-      <c r="G36" s="1">
+      <c r="F37" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H36" s="1">
-        <v>31</v>
-      </c>
-      <c r="I36" s="13">
+      <c r="G37" s="7">
+        <f>0.00001*E37^2+0.2358*E37-245.77</f>
+        <v>31.386440000000022</v>
+      </c>
+      <c r="H37" s="9">
         <f t="shared" si="3"/>
+        <v>0.45693220000000012</v>
+      </c>
+      <c r="I37" s="8">
+        <f>(F37*$N$17)/(4*$N$18+2*F37)</f>
         <v>3.1405444514787011E-3</v>
       </c>
-      <c r="J36" s="13">
-        <f t="shared" si="4"/>
+      <c r="J37" s="8">
+        <f>(F37*$N$17)/(4*$N$18)</f>
         <v>3.1837352159163838E-3</v>
       </c>
-      <c r="K36" s="13">
-        <f t="shared" si="5"/>
+      <c r="K37" s="8">
+        <f>F37*$S$18+$T$18</f>
         <v>3.3811273993081428E-3</v>
       </c>
-      <c r="L36" s="1">
-        <f t="shared" si="6"/>
+      <c r="L37" s="1">
+        <f>C37-K37</f>
         <v>5.8726006918574485E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="20">
         <v>1050</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38" s="9">
         <v>3.4820000000000002</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C38" s="8">
         <f t="shared" si="0"/>
         <v>3.4820000000000003E-3</v>
       </c>
-      <c r="D37" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D38" s="9">
         <v>1.123</v>
       </c>
-      <c r="F37" s="1">
+      <c r="E38" s="1">
         <f t="shared" si="1"/>
         <v>1123</v>
       </c>
-      <c r="G37" s="1">
+      <c r="F38" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="H37" s="1">
-        <v>32</v>
-      </c>
-      <c r="I37" s="13">
+      <c r="G38" s="7">
+        <f>0.00001*E38^2+0.2358*E38-245.77</f>
+        <v>31.644689999999997</v>
+      </c>
+      <c r="H38" s="9">
         <f t="shared" si="3"/>
+        <v>0.45822344999999998</v>
+      </c>
+      <c r="I38" s="8">
+        <f>(F38*$N$17)/(4*$N$18+2*F38)</f>
         <v>3.2437624299403367E-3</v>
       </c>
-      <c r="J37" s="13">
-        <f t="shared" si="4"/>
+      <c r="J38" s="8">
+        <f>(F38*$N$17)/(4*$N$18)</f>
         <v>3.2898597231135968E-3</v>
       </c>
-      <c r="K37" s="13">
-        <f t="shared" si="5"/>
+      <c r="K38" s="8">
+        <f>F38*$S$18+$T$18</f>
         <v>3.4872910905435891E-3</v>
       </c>
-      <c r="L37" s="1">
-        <f t="shared" si="6"/>
+      <c r="L38" s="1">
+        <f>C38-K38</f>
         <v>-5.2910905435888354E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="20">
         <v>1080</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="9">
         <v>3.5539999999999998</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C39" s="8">
         <f t="shared" si="0"/>
         <v>3.5539999999999999E-3</v>
       </c>
-      <c r="D38" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D39" s="9">
         <v>1.1240000000000001</v>
       </c>
-      <c r="F38" s="1">
+      <c r="E39" s="1">
         <f t="shared" si="1"/>
         <v>1124</v>
       </c>
-      <c r="G38" s="1">
+      <c r="F39" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="H38" s="1">
-        <v>32</v>
-      </c>
-      <c r="I38" s="13">
+      <c r="G39" s="7">
+        <f>0.00001*E39^2+0.2358*E39-245.77</f>
+        <v>31.902959999999979</v>
+      </c>
+      <c r="H39" s="9">
         <f t="shared" si="3"/>
+        <v>0.45951479999999989</v>
+      </c>
+      <c r="I39" s="8">
+        <f>(F39*$N$17)/(4*$N$18+2*F39)</f>
         <v>3.3468871419535555E-3</v>
       </c>
-      <c r="J38" s="13">
-        <f t="shared" si="4"/>
+      <c r="J39" s="8">
+        <f>(F39*$N$17)/(4*$N$18)</f>
         <v>3.3959842303108094E-3</v>
       </c>
-      <c r="K38" s="13">
-        <f t="shared" si="5"/>
+      <c r="K39" s="8">
+        <f>F39*$S$18+$T$18</f>
         <v>3.593454781779035E-3</v>
       </c>
-      <c r="L38" s="1">
-        <f t="shared" si="6"/>
+      <c r="L39" s="1">
+        <f>C39-K39</f>
         <v>-3.9454781779035136E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="20">
         <v>1110</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="9">
         <v>3.64</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C40" s="8">
         <f t="shared" si="0"/>
         <v>3.64E-3</v>
       </c>
-      <c r="D39" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D40" s="9">
         <v>1.125</v>
       </c>
-      <c r="F39" s="1">
+      <c r="E40" s="1">
         <f t="shared" si="1"/>
         <v>1125</v>
       </c>
-      <c r="G39" s="1">
+      <c r="F40" s="1">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="H39" s="1">
-        <v>32</v>
-      </c>
-      <c r="I39" s="13">
+      <c r="G40" s="7">
+        <f>0.00001*E40^2+0.2358*E40-245.77</f>
+        <v>32.161250000000024</v>
+      </c>
+      <c r="H40" s="9">
         <f t="shared" si="3"/>
+        <v>0.46080625000000008</v>
+      </c>
+      <c r="I40" s="8">
+        <f>(F40*$N$17)/(4*$N$18+2*F40)</f>
         <v>3.4499187138728321E-3</v>
       </c>
-      <c r="J39" s="13">
-        <f t="shared" si="4"/>
+      <c r="J40" s="8">
+        <f>(F40*$N$17)/(4*$N$18)</f>
         <v>3.5021087375080224E-3</v>
       </c>
-      <c r="K39" s="13">
-        <f t="shared" si="5"/>
+      <c r="K40" s="8">
+        <f>F40*$S$18+$T$18</f>
         <v>3.6996184730144809E-3</v>
       </c>
-      <c r="L39" s="1">
-        <f t="shared" si="6"/>
+      <c r="L40" s="1">
+        <f>C40-K40</f>
         <v>-5.961847301448088E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="20">
         <v>1140</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="9">
         <v>3.7250000000000001</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C41" s="8">
         <f t="shared" si="0"/>
         <v>3.725E-3</v>
       </c>
-      <c r="D40" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D41" s="9">
         <v>1.125</v>
       </c>
-      <c r="F40" s="1">
+      <c r="E41" s="1">
         <f t="shared" si="1"/>
         <v>1125</v>
       </c>
-      <c r="G40" s="1">
+      <c r="F41" s="1">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="H40" s="1">
-        <v>32</v>
-      </c>
-      <c r="I40" s="13">
+      <c r="G41" s="7">
+        <f>0.00001*E41^2+0.2358*E41-245.77</f>
+        <v>32.161250000000024</v>
+      </c>
+      <c r="H41" s="9">
         <f t="shared" si="3"/>
+        <v>0.46080625000000008</v>
+      </c>
+      <c r="I41" s="8">
+        <f>(F41*$N$17)/(4*$N$18+2*F41)</f>
         <v>3.4499187138728321E-3</v>
       </c>
-      <c r="J40" s="13">
-        <f t="shared" si="4"/>
+      <c r="J41" s="8">
+        <f>(F41*$N$17)/(4*$N$18)</f>
         <v>3.5021087375080224E-3</v>
       </c>
-      <c r="K40" s="13">
-        <f t="shared" si="5"/>
+      <c r="K41" s="8">
+        <f>F41*$S$18+$T$18</f>
         <v>3.6996184730144809E-3</v>
       </c>
-      <c r="L40" s="1">
-        <f t="shared" si="6"/>
+      <c r="L41" s="1">
+        <f>C41-K41</f>
         <v>2.5381526985519126E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="20">
         <v>1170</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="9">
         <v>3.7930000000000001</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C42" s="8">
         <f t="shared" si="0"/>
         <v>3.7930000000000004E-3</v>
       </c>
-      <c r="D41" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="D42" s="9">
         <v>1.1259999999999999</v>
       </c>
-      <c r="F41" s="1">
+      <c r="E42" s="1">
         <f t="shared" si="1"/>
         <v>1126</v>
       </c>
-      <c r="G41" s="1">
+      <c r="F42" s="1">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="H41" s="1">
-        <v>32</v>
-      </c>
-      <c r="I41" s="13">
+      <c r="G42" s="7">
+        <f>0.00001*E42^2+0.2358*E42-245.77</f>
+        <v>32.419560000000018</v>
+      </c>
+      <c r="H42" s="9">
         <f t="shared" si="3"/>
+        <v>0.46209780000000011</v>
+      </c>
+      <c r="I42" s="8">
+        <f>(F42*$N$17)/(4*$N$18+2*F42)</f>
         <v>3.5528572718245013E-3</v>
       </c>
-      <c r="J41" s="13">
-        <f t="shared" si="4"/>
+      <c r="J42" s="8">
+        <f>(F42*$N$17)/(4*$N$18)</f>
         <v>3.6082332447052354E-3</v>
       </c>
-      <c r="K41" s="13">
-        <f t="shared" si="5"/>
+      <c r="K42" s="8">
+        <f>F42*$S$18+$T$18</f>
         <v>3.8057821642499272E-3</v>
       </c>
-      <c r="L41" s="1">
-        <f t="shared" si="6"/>
+      <c r="L42" s="1">
+        <f>C42-K42</f>
         <v>-1.2782164249926838E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="20">
         <v>1200</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="9">
         <v>3.8479999999999999</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C43" s="8">
         <f t="shared" si="0"/>
         <v>3.8479999999999999E-3</v>
       </c>
-      <c r="D42" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="D43" s="9">
         <v>1.127</v>
       </c>
-      <c r="F42" s="1">
+      <c r="E43" s="1">
         <f t="shared" si="1"/>
         <v>1127</v>
       </c>
-      <c r="G42" s="1">
+      <c r="F43" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H42" s="1">
-        <v>33</v>
-      </c>
-      <c r="I42" s="13">
+      <c r="G43" s="7">
+        <f>0.00001*E43^2+0.2358*E43-245.77</f>
+        <v>32.677890000000019</v>
+      </c>
+      <c r="H43" s="9">
         <f t="shared" si="3"/>
+        <v>0.46338945000000009</v>
+      </c>
+      <c r="I43" s="8">
+        <f>(F43*$N$17)/(4*$N$18+2*F43)</f>
         <v>3.6557029417072732E-3</v>
       </c>
-      <c r="J42" s="13">
-        <f t="shared" si="4"/>
+      <c r="J43" s="8">
+        <f>(F43*$N$17)/(4*$N$18)</f>
         <v>3.7143577519024485E-3</v>
       </c>
-      <c r="K42" s="13">
-        <f t="shared" si="5"/>
+      <c r="K43" s="8">
+        <f>F43*$S$18+$T$18</f>
         <v>3.9119458554853735E-3</v>
       </c>
-      <c r="L42" s="1">
-        <f t="shared" si="6"/>
+      <c r="L43" s="1">
+        <f>C43-K43</f>
         <v>-6.3945855485373661E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="20">
         <v>1230</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="9">
         <v>3.9119999999999999</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C44" s="8">
         <f t="shared" si="0"/>
         <v>3.9119999999999997E-3</v>
       </c>
-      <c r="D43" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="D44" s="9">
         <v>1.127</v>
       </c>
-      <c r="F43" s="1">
+      <c r="E44" s="1">
         <f t="shared" si="1"/>
         <v>1127</v>
       </c>
-      <c r="G43" s="1">
+      <c r="F44" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H43" s="1">
-        <v>33</v>
-      </c>
-      <c r="I43" s="13">
+      <c r="G44" s="7">
+        <f>0.00001*E44^2+0.2358*E44-245.77</f>
+        <v>32.677890000000019</v>
+      </c>
+      <c r="H44" s="9">
         <f t="shared" si="3"/>
+        <v>0.46338945000000009</v>
+      </c>
+      <c r="I44" s="8">
+        <f>(F44*$N$17)/(4*$N$18+2*F44)</f>
         <v>3.6557029417072732E-3</v>
       </c>
-      <c r="J43" s="13">
-        <f t="shared" si="4"/>
+      <c r="J44" s="8">
+        <f>(F44*$N$17)/(4*$N$18)</f>
         <v>3.7143577519024485E-3</v>
       </c>
-      <c r="K43" s="13">
-        <f t="shared" si="5"/>
+      <c r="K44" s="8">
+        <f>F44*$S$18+$T$18</f>
         <v>3.9119458554853735E-3</v>
       </c>
-      <c r="L43" s="1">
-        <f t="shared" si="6"/>
+      <c r="L44" s="1">
+        <f>C44-K44</f>
         <v>5.4144514626160156E-8</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="20">
         <v>1260</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B45" s="9">
         <v>3.9790000000000001</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C45" s="8">
         <f t="shared" si="0"/>
         <v>3.9789999999999999E-3</v>
       </c>
-      <c r="D44" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D45" s="9">
         <v>1.127</v>
       </c>
-      <c r="F44" s="1">
+      <c r="E45" s="1">
         <f t="shared" si="1"/>
         <v>1127</v>
       </c>
-      <c r="G44" s="1">
+      <c r="F45" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H44" s="1">
-        <v>33</v>
-      </c>
-      <c r="I44" s="13">
+      <c r="G45" s="7">
+        <f>0.00001*E45^2+0.2358*E45-245.77</f>
+        <v>32.677890000000019</v>
+      </c>
+      <c r="H45" s="9">
         <f t="shared" si="3"/>
+        <v>0.46338945000000009</v>
+      </c>
+      <c r="I45" s="8">
+        <f>(F45*$N$17)/(4*$N$18+2*F45)</f>
         <v>3.6557029417072732E-3</v>
       </c>
-      <c r="J44" s="13">
-        <f t="shared" si="4"/>
+      <c r="J45" s="8">
+        <f>(F45*$N$17)/(4*$N$18)</f>
         <v>3.7143577519024485E-3</v>
       </c>
-      <c r="K44" s="13">
-        <f t="shared" si="5"/>
+      <c r="K45" s="8">
+        <f>F45*$S$18+$T$18</f>
         <v>3.9119458554853735E-3</v>
       </c>
-      <c r="L44" s="1">
-        <f t="shared" si="6"/>
+      <c r="L45" s="1">
+        <f>C45-K45</f>
         <v>6.7054144514626379E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="20">
         <v>1290</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B46" s="9">
         <v>4.0419999999999998</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C46" s="8">
         <f t="shared" si="0"/>
         <v>4.0419999999999996E-3</v>
       </c>
-      <c r="D45" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D46" s="9">
         <v>1.1279999999999999</v>
       </c>
-      <c r="F45" s="1">
+      <c r="E46" s="1">
         <f t="shared" si="1"/>
         <v>1128</v>
       </c>
-      <c r="G45" s="1">
+      <c r="F46" s="1">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="H45" s="1">
-        <v>33</v>
-      </c>
-      <c r="I45" s="13">
+      <c r="G46" s="7">
+        <f>0.00001*E46^2+0.2358*E46-245.77</f>
+        <v>32.93623999999997</v>
+      </c>
+      <c r="H46" s="9">
         <f t="shared" si="3"/>
+        <v>0.46468119999999985</v>
+      </c>
+      <c r="I46" s="8">
+        <f>(F46*$N$17)/(4*$N$18+2*F46)</f>
         <v>3.7584558491927478E-3</v>
       </c>
-      <c r="J45" s="13">
-        <f t="shared" si="4"/>
+      <c r="J46" s="8">
+        <f>(F46*$N$17)/(4*$N$18)</f>
         <v>3.8204822590996606E-3</v>
       </c>
-      <c r="K45" s="13">
-        <f t="shared" si="5"/>
+      <c r="K46" s="8">
+        <f>F46*$S$18+$T$18</f>
         <v>4.0181095467208194E-3</v>
       </c>
-      <c r="L45" s="1">
-        <f t="shared" si="6"/>
+      <c r="L46" s="1">
+        <f>C46-K46</f>
         <v>2.3890453279180185E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="20">
         <v>1320</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B47" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C47" s="8">
         <f t="shared" si="0"/>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="D46" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="D47" s="9">
         <v>1.129</v>
       </c>
-      <c r="F46" s="1">
+      <c r="E47" s="1">
         <f t="shared" si="1"/>
         <v>1129</v>
       </c>
-      <c r="G46" s="1">
+      <c r="F47" s="1">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="H46" s="1">
-        <v>33</v>
-      </c>
-      <c r="I46" s="13">
+      <c r="G47" s="7">
+        <f>0.00001*E47^2+0.2358*E47-245.77</f>
+        <v>33.19461000000004</v>
+      </c>
+      <c r="H47" s="9">
         <f t="shared" si="3"/>
+        <v>0.46597305000000022</v>
+      </c>
+      <c r="I47" s="8">
+        <f>(F47*$N$17)/(4*$N$18+2*F47)</f>
         <v>3.8611161197259283E-3</v>
       </c>
-      <c r="J46" s="13">
-        <f t="shared" si="4"/>
+      <c r="J47" s="8">
+        <f>(F47*$N$17)/(4*$N$18)</f>
         <v>3.9266067662968732E-3</v>
       </c>
-      <c r="K46" s="13">
-        <f t="shared" si="5"/>
+      <c r="K47" s="8">
+        <f>F47*$S$18+$T$18</f>
         <v>4.1242732379562653E-3</v>
       </c>
-      <c r="L46" s="1">
-        <f t="shared" si="6"/>
+      <c r="L47" s="1">
+        <f>C47-K47</f>
         <v>-2.4273237956265806E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="20">
         <v>1350</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="9">
         <v>4.16</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C48" s="8">
         <f t="shared" si="0"/>
         <v>4.1600000000000005E-3</v>
       </c>
-      <c r="D47" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D48" s="9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F47" s="1">
+      <c r="E48" s="1">
         <f t="shared" si="1"/>
         <v>1130</v>
       </c>
-      <c r="G47" s="1">
+      <c r="F48" s="1">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="H47" s="1">
-        <v>33</v>
-      </c>
-      <c r="I47" s="13">
+      <c r="G48" s="7">
+        <f>0.00001*E48^2+0.2358*E48-245.77</f>
+        <v>33.453000000000003</v>
+      </c>
+      <c r="H48" s="9">
         <f t="shared" si="3"/>
+        <v>0.46726500000000004</v>
+      </c>
+      <c r="I48" s="8">
+        <f>(F48*$N$17)/(4*$N$18+2*F48)</f>
         <v>3.9636838785257278E-3</v>
       </c>
-      <c r="J47" s="13">
-        <f t="shared" si="4"/>
+      <c r="J48" s="8">
+        <f>(F48*$N$17)/(4*$N$18)</f>
         <v>4.0327312734940862E-3</v>
       </c>
-      <c r="K47" s="13">
-        <f t="shared" si="5"/>
+      <c r="K48" s="8">
+        <f>F48*$S$18+$T$18</f>
         <v>4.2304369291917112E-3</v>
       </c>
-      <c r="L47" s="1">
-        <f t="shared" si="6"/>
+      <c r="L48" s="1">
+        <f>C48-K48</f>
         <v>-7.0436929191710664E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="20">
         <v>1380</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="9">
         <v>4.2140000000000004</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C49" s="8">
         <f t="shared" si="0"/>
         <v>4.2140000000000007E-3</v>
       </c>
-      <c r="D48" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="D49" s="9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F48" s="1">
+      <c r="E49" s="1">
         <f t="shared" si="1"/>
         <v>1130</v>
       </c>
-      <c r="G48" s="1">
+      <c r="F49" s="1">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="H48" s="1">
-        <v>33</v>
-      </c>
-      <c r="I48" s="13">
+      <c r="G49" s="7">
+        <f>0.00001*E49^2+0.2358*E49-245.77</f>
+        <v>33.453000000000003</v>
+      </c>
+      <c r="H49" s="9">
         <f t="shared" si="3"/>
+        <v>0.46726500000000004</v>
+      </c>
+      <c r="I49" s="8">
+        <f>(F49*$N$17)/(4*$N$18+2*F49)</f>
         <v>3.9636838785257278E-3</v>
       </c>
-      <c r="J48" s="13">
-        <f t="shared" si="4"/>
+      <c r="J49" s="8">
+        <f>(F49*$N$17)/(4*$N$18)</f>
         <v>4.0327312734940862E-3</v>
       </c>
-      <c r="K48" s="13">
-        <f t="shared" si="5"/>
+      <c r="K49" s="8">
+        <f>F49*$S$18+$T$18</f>
         <v>4.2304369291917112E-3</v>
       </c>
-      <c r="L48" s="1">
-        <f t="shared" si="6"/>
+      <c r="L49" s="1">
+        <f>C49-K49</f>
         <v>-1.6436929191710435E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="20">
         <v>1410</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="9">
         <v>4.266</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C50" s="8">
         <f t="shared" si="0"/>
         <v>4.2659999999999998E-3</v>
       </c>
-      <c r="D49" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="D50" s="9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F49" s="1">
+      <c r="E50" s="1">
         <f t="shared" si="1"/>
         <v>1130</v>
       </c>
-      <c r="G49" s="1">
+      <c r="F50" s="1">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="H49" s="1">
-        <v>33</v>
-      </c>
-      <c r="I49" s="13">
+      <c r="G50" s="7">
+        <f>0.00001*E50^2+0.2358*E50-245.77</f>
+        <v>33.453000000000003</v>
+      </c>
+      <c r="H50" s="9">
         <f t="shared" si="3"/>
+        <v>0.46726500000000004</v>
+      </c>
+      <c r="I50" s="8">
+        <f>(F50*$N$17)/(4*$N$18+2*F50)</f>
         <v>3.9636838785257278E-3</v>
       </c>
-      <c r="J49" s="13">
-        <f t="shared" si="4"/>
+      <c r="J50" s="8">
+        <f>(F50*$N$17)/(4*$N$18)</f>
         <v>4.0327312734940862E-3</v>
       </c>
-      <c r="K49" s="13">
-        <f t="shared" si="5"/>
+      <c r="K50" s="8">
+        <f>F50*$S$18+$T$18</f>
         <v>4.2304369291917112E-3</v>
       </c>
-      <c r="L49" s="1">
-        <f t="shared" si="6"/>
+      <c r="L50" s="1">
+        <f>C50-K50</f>
         <v>3.556307080828866E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="20">
         <v>1440</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B51" s="9">
         <v>4.3129999999999997</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C51" s="8">
         <f t="shared" si="0"/>
         <v>4.313E-3</v>
       </c>
-      <c r="D50" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="D51" s="9">
         <v>1.131</v>
       </c>
-      <c r="F50" s="1">
+      <c r="E51" s="1">
         <f t="shared" si="1"/>
         <v>1131</v>
       </c>
-      <c r="G50" s="1">
+      <c r="F51" s="1">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="H50" s="1">
-        <v>34</v>
-      </c>
-      <c r="I50" s="13">
+      <c r="G51" s="7">
+        <f>0.00001*E51^2+0.2358*E51-245.77</f>
+        <v>33.711409999999972</v>
+      </c>
+      <c r="H51" s="9">
         <f t="shared" si="3"/>
+        <v>0.46855704999999986</v>
+      </c>
+      <c r="I51" s="8">
+        <f>(F51*$N$17)/(4*$N$18+2*F51)</f>
         <v>4.0661592505854801E-3</v>
       </c>
-      <c r="J50" s="13">
-        <f t="shared" si="4"/>
+      <c r="J51" s="8">
+        <f>(F51*$N$17)/(4*$N$18)</f>
         <v>4.1388557806912992E-3</v>
       </c>
-      <c r="K50" s="13">
-        <f t="shared" si="5"/>
+      <c r="K51" s="8">
+        <f>F51*$S$18+$T$18</f>
         <v>4.336600620427157E-3</v>
       </c>
-      <c r="L50" s="1">
-        <f t="shared" si="6"/>
+      <c r="L51" s="1">
+        <f>C51-K51</f>
         <v>-2.3600620427157055E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="20">
         <v>1470</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="9">
         <v>4.3780000000000001</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C52" s="8">
         <f t="shared" si="0"/>
         <v>4.3779999999999999E-3</v>
       </c>
-      <c r="D51" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="D52" s="9">
         <v>1.131</v>
       </c>
-      <c r="F51" s="1">
+      <c r="E52" s="1">
         <f t="shared" si="1"/>
         <v>1131</v>
       </c>
-      <c r="G51" s="1">
+      <c r="F52" s="1">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="H51" s="1">
-        <v>34</v>
-      </c>
-      <c r="I51" s="13">
+      <c r="G52" s="7">
+        <f>0.00001*E52^2+0.2358*E52-245.77</f>
+        <v>33.711409999999972</v>
+      </c>
+      <c r="H52" s="9">
         <f t="shared" si="3"/>
+        <v>0.46855704999999986</v>
+      </c>
+      <c r="I52" s="8">
+        <f>(F52*$N$17)/(4*$N$18+2*F52)</f>
         <v>4.0661592505854801E-3</v>
       </c>
-      <c r="J51" s="13">
-        <f t="shared" si="4"/>
+      <c r="J52" s="8">
+        <f>(F52*$N$17)/(4*$N$18)</f>
         <v>4.1388557806912992E-3</v>
       </c>
-      <c r="K51" s="13">
-        <f t="shared" si="5"/>
+      <c r="K52" s="8">
+        <f>F52*$S$18+$T$18</f>
         <v>4.336600620427157E-3</v>
       </c>
-      <c r="L51" s="1">
-        <f t="shared" si="6"/>
+      <c r="L52" s="1">
+        <f>C52-K52</f>
         <v>4.1399379572842898E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="20">
         <v>1500</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B53" s="9">
         <v>4.4260000000000002</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C53" s="8">
         <f t="shared" si="0"/>
         <v>4.4260000000000002E-3</v>
       </c>
-      <c r="D52" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="D53" s="9">
         <v>1.1319999999999999</v>
       </c>
-      <c r="F52" s="1">
+      <c r="E53" s="1">
         <f t="shared" si="1"/>
         <v>1132</v>
       </c>
-      <c r="G52" s="1">
+      <c r="F53" s="1">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H52" s="1">
-        <v>34</v>
-      </c>
-      <c r="I52" s="13">
+      <c r="G53" s="7">
+        <f>0.00001*E53^2+0.2358*E53-245.77</f>
+        <v>33.969840000000005</v>
+      </c>
+      <c r="H53" s="9">
         <f t="shared" si="3"/>
+        <v>0.46984920000000002</v>
+      </c>
+      <c r="I53" s="8">
+        <f>(F53*$N$17)/(4*$N$18+2*F53)</f>
         <v>4.1685423606734485E-3</v>
       </c>
-      <c r="J52" s="13">
-        <f t="shared" si="4"/>
+      <c r="J53" s="8">
+        <f>(F53*$N$17)/(4*$N$18)</f>
         <v>4.2449802878885114E-3</v>
       </c>
-      <c r="K52" s="13">
-        <f t="shared" si="5"/>
+      <c r="K53" s="8">
+        <f>F53*$S$18+$T$18</f>
         <v>4.4427643116626038E-3</v>
       </c>
-      <c r="L52" s="1">
-        <f t="shared" si="6"/>
+      <c r="L53" s="1">
+        <f>C53-K53</f>
         <v>-1.6764311662603552E-5</v>
       </c>
     </row>
+    <row r="62" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="Q24:R24"/>
+  <mergeCells count="10">
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.11811023622047244" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>